--- a/inputs/Example_Dictionary.xlsx
+++ b/inputs/Example_Dictionary.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hvincelette\OneDrive - DOI\Data_management\mdEditor\R-xlsx-to-mdJSON-dictionary\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hdvincelette/Documents/GitHub/xlsx-to-mdJSON-dictionary/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00522DCA-BCF0-CE48-8343-A449D04977D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17952" windowHeight="8592" tabRatio="747"/>
+    <workbookView xWindow="15080" yWindow="500" windowWidth="14220" windowHeight="15860" tabRatio="747" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_dictionary" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3224" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3224" uniqueCount="629">
   <si>
     <t>Notes</t>
   </si>
@@ -1909,16 +1910,13 @@
     <t>no</t>
   </si>
   <si>
-    <t>"BALO"</t>
-  </si>
-  <si>
-    <t>"The" 9-digit number on the federal metal band attached to the bird when captured</t>
+    <t>The 9-digit number on the federal metal band attached to the bird when captured</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2729,24 +2727,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M587"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.77734375" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="30.77734375" customWidth="1"/>
-    <col min="11" max="11" width="9" customWidth="1"/>
-    <col min="13" max="13" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>529</v>
       </c>
@@ -2787,7 +2792,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2813,7 +2818,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2830,7 +2835,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2841,13 +2846,13 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>628</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -2861,13 +2866,13 @@
         <v>586</v>
       </c>
       <c r="E5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="J5" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2887,7 +2892,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -2907,7 +2912,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -2933,7 +2938,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -2959,7 +2964,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -2982,7 +2987,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -3008,7 +3013,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -3025,7 +3030,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -3042,7 +3047,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -3059,7 +3064,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -3076,7 +3081,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -3093,7 +3098,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -3119,7 +3124,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -3136,7 +3141,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -3153,7 +3158,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -3170,7 +3175,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -3187,7 +3192,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -3204,7 +3209,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -3221,7 +3226,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -3247,7 +3252,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -3264,7 +3269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>47</v>
       </c>
@@ -3281,7 +3286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>47</v>
       </c>
@@ -3298,7 +3303,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -3315,7 +3320,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -3332,7 +3337,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -3349,7 +3354,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -3366,7 +3371,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>47</v>
       </c>
@@ -3383,7 +3388,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>47</v>
       </c>
@@ -3400,7 +3405,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -3417,7 +3422,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>64</v>
       </c>
@@ -3440,7 +3445,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>65</v>
       </c>
@@ -3463,7 +3468,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>66</v>
       </c>
@@ -3486,7 +3491,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>68</v>
       </c>
@@ -3509,7 +3514,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>70</v>
       </c>
@@ -3529,7 +3534,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>72</v>
       </c>
@@ -3549,7 +3554,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>74</v>
       </c>
@@ -3575,7 +3580,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>74</v>
       </c>
@@ -3592,7 +3597,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>74</v>
       </c>
@@ -3609,7 +3614,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>80</v>
       </c>
@@ -3629,7 +3634,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>82</v>
       </c>
@@ -3652,7 +3657,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>83</v>
       </c>
@@ -3675,7 +3680,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>84</v>
       </c>
@@ -3695,7 +3700,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>86</v>
       </c>
@@ -3715,7 +3720,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>88</v>
       </c>
@@ -3741,7 +3746,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>88</v>
       </c>
@@ -3758,7 +3763,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>88</v>
       </c>
@@ -3775,7 +3780,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>88</v>
       </c>
@@ -3792,7 +3797,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>88</v>
       </c>
@@ -3809,7 +3814,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>88</v>
       </c>
@@ -3826,7 +3831,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>88</v>
       </c>
@@ -3843,7 +3848,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>88</v>
       </c>
@@ -3860,7 +3865,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>88</v>
       </c>
@@ -3877,7 +3882,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>100</v>
       </c>
@@ -3903,7 +3908,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>100</v>
       </c>
@@ -3920,7 +3925,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>100</v>
       </c>
@@ -3937,7 +3942,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>100</v>
       </c>
@@ -3954,7 +3959,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>100</v>
       </c>
@@ -3971,7 +3976,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>100</v>
       </c>
@@ -3988,7 +3993,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>100</v>
       </c>
@@ -4005,7 +4010,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>100</v>
       </c>
@@ -4022,7 +4027,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>100</v>
       </c>
@@ -4039,7 +4044,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>100</v>
       </c>
@@ -4056,7 +4061,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>100</v>
       </c>
@@ -4073,7 +4078,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>100</v>
       </c>
@@ -4090,7 +4095,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>100</v>
       </c>
@@ -4107,7 +4112,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>100</v>
       </c>
@@ -4124,7 +4129,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>100</v>
       </c>
@@ -4141,7 +4146,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>100</v>
       </c>
@@ -4158,7 +4163,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>100</v>
       </c>
@@ -4175,7 +4180,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>119</v>
       </c>
@@ -4201,7 +4206,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>119</v>
       </c>
@@ -4218,7 +4223,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>119</v>
       </c>
@@ -4235,7 +4240,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>119</v>
       </c>
@@ -4252,7 +4257,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>119</v>
       </c>
@@ -4269,7 +4274,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>119</v>
       </c>
@@ -4286,7 +4291,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>119</v>
       </c>
@@ -4303,7 +4308,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>119</v>
       </c>
@@ -4320,7 +4325,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>119</v>
       </c>
@@ -4337,7 +4342,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>119</v>
       </c>
@@ -4354,7 +4359,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>119</v>
       </c>
@@ -4371,7 +4376,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>119</v>
       </c>
@@ -4388,7 +4393,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>119</v>
       </c>
@@ -4405,7 +4410,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>119</v>
       </c>
@@ -4422,7 +4427,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>119</v>
       </c>
@@ -4439,7 +4444,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>119</v>
       </c>
@@ -4456,7 +4461,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>119</v>
       </c>
@@ -4473,7 +4478,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>119</v>
       </c>
@@ -4490,7 +4495,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>120</v>
       </c>
@@ -4516,7 +4521,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>120</v>
       </c>
@@ -4533,7 +4538,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>120</v>
       </c>
@@ -4550,7 +4555,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>120</v>
       </c>
@@ -4567,7 +4572,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>120</v>
       </c>
@@ -4584,7 +4589,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>120</v>
       </c>
@@ -4601,7 +4606,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>120</v>
       </c>
@@ -4618,7 +4623,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>120</v>
       </c>
@@ -4635,7 +4640,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>120</v>
       </c>
@@ -4652,7 +4657,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>120</v>
       </c>
@@ -4669,7 +4674,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>120</v>
       </c>
@@ -4686,7 +4691,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>120</v>
       </c>
@@ -4703,7 +4708,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>120</v>
       </c>
@@ -4720,7 +4725,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>120</v>
       </c>
@@ -4737,7 +4742,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>120</v>
       </c>
@@ -4754,7 +4759,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>120</v>
       </c>
@@ -4771,7 +4776,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>120</v>
       </c>
@@ -4788,7 +4793,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>120</v>
       </c>
@@ -4805,7 +4810,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>121</v>
       </c>
@@ -4831,7 +4836,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>121</v>
       </c>
@@ -4848,7 +4853,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>121</v>
       </c>
@@ -4865,7 +4870,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>121</v>
       </c>
@@ -4882,7 +4887,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>121</v>
       </c>
@@ -4899,7 +4904,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>121</v>
       </c>
@@ -4916,7 +4921,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>121</v>
       </c>
@@ -4933,7 +4938,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>121</v>
       </c>
@@ -4950,7 +4955,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>121</v>
       </c>
@@ -4967,7 +4972,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>121</v>
       </c>
@@ -4984,7 +4989,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>121</v>
       </c>
@@ -5001,7 +5006,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -5018,7 +5023,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>121</v>
       </c>
@@ -5035,7 +5040,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>121</v>
       </c>
@@ -5052,7 +5057,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>121</v>
       </c>
@@ -5069,7 +5074,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>121</v>
       </c>
@@ -5086,7 +5091,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>121</v>
       </c>
@@ -5103,7 +5108,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>121</v>
       </c>
@@ -5120,7 +5125,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>122</v>
       </c>
@@ -5146,7 +5151,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>122</v>
       </c>
@@ -5163,7 +5168,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>122</v>
       </c>
@@ -5180,7 +5185,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>122</v>
       </c>
@@ -5197,7 +5202,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>122</v>
       </c>
@@ -5214,7 +5219,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>122</v>
       </c>
@@ -5231,7 +5236,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>122</v>
       </c>
@@ -5248,7 +5253,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>122</v>
       </c>
@@ -5265,7 +5270,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>122</v>
       </c>
@@ -5282,7 +5287,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>122</v>
       </c>
@@ -5299,7 +5304,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>122</v>
       </c>
@@ -5316,7 +5321,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>122</v>
       </c>
@@ -5333,7 +5338,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>122</v>
       </c>
@@ -5350,7 +5355,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>122</v>
       </c>
@@ -5367,7 +5372,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>122</v>
       </c>
@@ -5384,7 +5389,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>122</v>
       </c>
@@ -5401,7 +5406,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>122</v>
       </c>
@@ -5418,7 +5423,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>122</v>
       </c>
@@ -5435,7 +5440,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>123</v>
       </c>
@@ -5461,7 +5466,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>123</v>
       </c>
@@ -5478,7 +5483,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>123</v>
       </c>
@@ -5495,7 +5500,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>123</v>
       </c>
@@ -5512,7 +5517,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>123</v>
       </c>
@@ -5529,7 +5534,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>123</v>
       </c>
@@ -5546,7 +5551,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>123</v>
       </c>
@@ -5563,7 +5568,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>123</v>
       </c>
@@ -5580,7 +5585,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>123</v>
       </c>
@@ -5597,7 +5602,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>123</v>
       </c>
@@ -5614,7 +5619,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>123</v>
       </c>
@@ -5631,7 +5636,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>123</v>
       </c>
@@ -5648,7 +5653,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>123</v>
       </c>
@@ -5665,7 +5670,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>123</v>
       </c>
@@ -5682,7 +5687,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>123</v>
       </c>
@@ -5699,7 +5704,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>123</v>
       </c>
@@ -5716,7 +5721,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>123</v>
       </c>
@@ -5733,7 +5738,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>123</v>
       </c>
@@ -5750,7 +5755,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>124</v>
       </c>
@@ -5776,7 +5781,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>124</v>
       </c>
@@ -5793,7 +5798,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>124</v>
       </c>
@@ -5810,7 +5815,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>124</v>
       </c>
@@ -5827,7 +5832,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>124</v>
       </c>
@@ -5844,7 +5849,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>124</v>
       </c>
@@ -5861,7 +5866,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>124</v>
       </c>
@@ -5878,7 +5883,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>124</v>
       </c>
@@ -5895,7 +5900,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>124</v>
       </c>
@@ -5912,7 +5917,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>124</v>
       </c>
@@ -5929,7 +5934,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>124</v>
       </c>
@@ -5946,7 +5951,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>124</v>
       </c>
@@ -5963,7 +5968,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>124</v>
       </c>
@@ -5980,7 +5985,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>124</v>
       </c>
@@ -5997,7 +6002,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>124</v>
       </c>
@@ -6014,7 +6019,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>124</v>
       </c>
@@ -6031,7 +6036,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>124</v>
       </c>
@@ -6048,7 +6053,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>124</v>
       </c>
@@ -6065,7 +6070,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>125</v>
       </c>
@@ -6091,7 +6096,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>125</v>
       </c>
@@ -6108,7 +6113,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>125</v>
       </c>
@@ -6125,7 +6130,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>125</v>
       </c>
@@ -6142,7 +6147,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>125</v>
       </c>
@@ -6159,7 +6164,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>125</v>
       </c>
@@ -6176,7 +6181,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>125</v>
       </c>
@@ -6193,7 +6198,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>125</v>
       </c>
@@ -6210,7 +6215,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>125</v>
       </c>
@@ -6227,7 +6232,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>125</v>
       </c>
@@ -6244,7 +6249,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>125</v>
       </c>
@@ -6261,7 +6266,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>125</v>
       </c>
@@ -6278,7 +6283,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>125</v>
       </c>
@@ -6295,7 +6300,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>125</v>
       </c>
@@ -6312,7 +6317,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>125</v>
       </c>
@@ -6329,7 +6334,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>125</v>
       </c>
@@ -6346,7 +6351,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>125</v>
       </c>
@@ -6363,7 +6368,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>125</v>
       </c>
@@ -6380,7 +6385,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>126</v>
       </c>
@@ -6406,7 +6411,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>126</v>
       </c>
@@ -6423,7 +6428,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>126</v>
       </c>
@@ -6440,7 +6445,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>126</v>
       </c>
@@ -6457,7 +6462,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>126</v>
       </c>
@@ -6474,7 +6479,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>126</v>
       </c>
@@ -6491,7 +6496,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>126</v>
       </c>
@@ -6508,7 +6513,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>126</v>
       </c>
@@ -6525,7 +6530,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>126</v>
       </c>
@@ -6542,7 +6547,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>126</v>
       </c>
@@ -6559,7 +6564,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>126</v>
       </c>
@@ -6576,7 +6581,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>126</v>
       </c>
@@ -6593,7 +6598,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>126</v>
       </c>
@@ -6610,7 +6615,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>126</v>
       </c>
@@ -6627,7 +6632,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>126</v>
       </c>
@@ -6644,7 +6649,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>126</v>
       </c>
@@ -6661,7 +6666,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>126</v>
       </c>
@@ -6678,7 +6683,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>126</v>
       </c>
@@ -6695,7 +6700,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>160</v>
       </c>
@@ -6721,7 +6726,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>160</v>
       </c>
@@ -6738,7 +6743,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>160</v>
       </c>
@@ -6755,7 +6760,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>160</v>
       </c>
@@ -6772,7 +6777,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>160</v>
       </c>
@@ -6789,7 +6794,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>162</v>
       </c>
@@ -6815,7 +6820,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>162</v>
       </c>
@@ -6832,7 +6837,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>162</v>
       </c>
@@ -6849,7 +6854,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>162</v>
       </c>
@@ -6866,7 +6871,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>162</v>
       </c>
@@ -6883,7 +6888,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>169</v>
       </c>
@@ -6906,7 +6911,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>171</v>
       </c>
@@ -6929,7 +6934,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>173</v>
       </c>
@@ -6952,7 +6957,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>175</v>
       </c>
@@ -6975,7 +6980,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>176</v>
       </c>
@@ -6998,7 +7003,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>176</v>
       </c>
@@ -7015,7 +7020,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>179</v>
       </c>
@@ -7038,7 +7043,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>179</v>
       </c>
@@ -7055,7 +7060,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>180</v>
       </c>
@@ -7078,7 +7083,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>182</v>
       </c>
@@ -7104,7 +7109,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>182</v>
       </c>
@@ -7121,7 +7126,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>182</v>
       </c>
@@ -7138,7 +7143,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>182</v>
       </c>
@@ -7155,7 +7160,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>182</v>
       </c>
@@ -7172,7 +7177,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>182</v>
       </c>
@@ -7189,7 +7194,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>182</v>
       </c>
@@ -7206,7 +7211,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>182</v>
       </c>
@@ -7223,7 +7228,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>182</v>
       </c>
@@ -7240,7 +7245,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>200</v>
       </c>
@@ -7266,7 +7271,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>200</v>
       </c>
@@ -7283,7 +7288,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>200</v>
       </c>
@@ -7300,7 +7305,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>200</v>
       </c>
@@ -7317,7 +7322,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>200</v>
       </c>
@@ -7334,7 +7339,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>200</v>
       </c>
@@ -7351,7 +7356,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>200</v>
       </c>
@@ -7368,7 +7373,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>200</v>
       </c>
@@ -7385,7 +7390,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>200</v>
       </c>
@@ -7402,7 +7407,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>218</v>
       </c>
@@ -7428,7 +7433,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>218</v>
       </c>
@@ -7445,7 +7450,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>218</v>
       </c>
@@ -7462,7 +7467,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>218</v>
       </c>
@@ -7479,7 +7484,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>220</v>
       </c>
@@ -7505,7 +7510,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>220</v>
       </c>
@@ -7522,7 +7527,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>220</v>
       </c>
@@ -7539,7 +7544,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>220</v>
       </c>
@@ -7556,7 +7561,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>225</v>
       </c>
@@ -7582,7 +7587,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>225</v>
       </c>
@@ -7599,7 +7604,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>225</v>
       </c>
@@ -7616,7 +7621,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>225</v>
       </c>
@@ -7633,7 +7638,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>225</v>
       </c>
@@ -7650,7 +7655,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>225</v>
       </c>
@@ -7667,7 +7672,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>225</v>
       </c>
@@ -7684,7 +7689,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>225</v>
       </c>
@@ -7701,7 +7706,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>225</v>
       </c>
@@ -7718,7 +7723,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>225</v>
       </c>
@@ -7735,7 +7740,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>225</v>
       </c>
@@ -7752,7 +7757,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>225</v>
       </c>
@@ -7769,7 +7774,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>225</v>
       </c>
@@ -7786,7 +7791,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>225</v>
       </c>
@@ -7803,7 +7808,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>225</v>
       </c>
@@ -7820,7 +7825,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>225</v>
       </c>
@@ -7837,7 +7842,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>225</v>
       </c>
@@ -7854,7 +7859,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>225</v>
       </c>
@@ -7871,7 +7876,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>225</v>
       </c>
@@ -7888,7 +7893,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>225</v>
       </c>
@@ -7905,7 +7910,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>227</v>
       </c>
@@ -7931,7 +7936,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>227</v>
       </c>
@@ -7948,7 +7953,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>227</v>
       </c>
@@ -7965,7 +7970,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>227</v>
       </c>
@@ -7982,7 +7987,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>227</v>
       </c>
@@ -7999,7 +8004,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>227</v>
       </c>
@@ -8016,7 +8021,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>227</v>
       </c>
@@ -8033,7 +8038,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>227</v>
       </c>
@@ -8050,7 +8055,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>227</v>
       </c>
@@ -8067,7 +8072,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>227</v>
       </c>
@@ -8084,7 +8089,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>227</v>
       </c>
@@ -8101,7 +8106,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>227</v>
       </c>
@@ -8118,7 +8123,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>227</v>
       </c>
@@ -8135,7 +8140,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>227</v>
       </c>
@@ -8152,7 +8157,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>227</v>
       </c>
@@ -8169,7 +8174,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>227</v>
       </c>
@@ -8186,7 +8191,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>227</v>
       </c>
@@ -8203,7 +8208,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>227</v>
       </c>
@@ -8220,7 +8225,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>227</v>
       </c>
@@ -8237,7 +8242,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>227</v>
       </c>
@@ -8254,7 +8259,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>229</v>
       </c>
@@ -8280,7 +8285,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>229</v>
       </c>
@@ -8297,7 +8302,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>229</v>
       </c>
@@ -8314,7 +8319,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>229</v>
       </c>
@@ -8331,7 +8336,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>229</v>
       </c>
@@ -8348,7 +8353,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>229</v>
       </c>
@@ -8365,7 +8370,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>229</v>
       </c>
@@ -8382,7 +8387,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>229</v>
       </c>
@@ -8399,7 +8404,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>229</v>
       </c>
@@ -8416,7 +8421,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>229</v>
       </c>
@@ -8433,7 +8438,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>229</v>
       </c>
@@ -8450,7 +8455,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>229</v>
       </c>
@@ -8467,7 +8472,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>229</v>
       </c>
@@ -8484,7 +8489,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>229</v>
       </c>
@@ -8501,7 +8506,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>229</v>
       </c>
@@ -8518,7 +8523,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>229</v>
       </c>
@@ -8535,7 +8540,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>229</v>
       </c>
@@ -8552,7 +8557,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>229</v>
       </c>
@@ -8569,7 +8574,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>229</v>
       </c>
@@ -8586,7 +8591,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>229</v>
       </c>
@@ -8603,7 +8608,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>231</v>
       </c>
@@ -8629,7 +8634,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>231</v>
       </c>
@@ -8646,7 +8651,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>231</v>
       </c>
@@ -8663,7 +8668,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>231</v>
       </c>
@@ -8680,7 +8685,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>231</v>
       </c>
@@ -8697,7 +8702,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>231</v>
       </c>
@@ -8714,7 +8719,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>231</v>
       </c>
@@ -8731,7 +8736,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>231</v>
       </c>
@@ -8748,7 +8753,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>231</v>
       </c>
@@ -8765,7 +8770,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>231</v>
       </c>
@@ -8782,7 +8787,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>231</v>
       </c>
@@ -8799,7 +8804,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>231</v>
       </c>
@@ -8816,7 +8821,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>231</v>
       </c>
@@ -8833,7 +8838,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>231</v>
       </c>
@@ -8850,7 +8855,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>231</v>
       </c>
@@ -8867,7 +8872,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>231</v>
       </c>
@@ -8884,7 +8889,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>231</v>
       </c>
@@ -8901,7 +8906,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>231</v>
       </c>
@@ -8918,7 +8923,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>231</v>
       </c>
@@ -8935,7 +8940,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>231</v>
       </c>
@@ -8952,7 +8957,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>270</v>
       </c>
@@ -8975,7 +8980,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>272</v>
       </c>
@@ -8998,7 +9003,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>272</v>
       </c>
@@ -9015,7 +9020,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>272</v>
       </c>
@@ -9032,7 +9037,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>272</v>
       </c>
@@ -9049,7 +9054,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>272</v>
       </c>
@@ -9066,7 +9071,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>272</v>
       </c>
@@ -9083,7 +9088,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>272</v>
       </c>
@@ -9100,7 +9105,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>272</v>
       </c>
@@ -9117,7 +9122,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>272</v>
       </c>
@@ -9134,7 +9139,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>281</v>
       </c>
@@ -9157,7 +9162,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>283</v>
       </c>
@@ -9180,7 +9185,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>285</v>
       </c>
@@ -9203,7 +9208,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>287</v>
       </c>
@@ -9226,7 +9231,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>289</v>
       </c>
@@ -9249,7 +9254,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>291</v>
       </c>
@@ -9272,7 +9277,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="360" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A360" s="3" t="s">
         <v>293</v>
       </c>
@@ -9295,7 +9300,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>294</v>
       </c>
@@ -9318,7 +9323,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>296</v>
       </c>
@@ -9344,7 +9349,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>299</v>
       </c>
@@ -9370,7 +9375,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>301</v>
       </c>
@@ -9396,7 +9401,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>304</v>
       </c>
@@ -9422,7 +9427,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>306</v>
       </c>
@@ -9448,7 +9453,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>308</v>
       </c>
@@ -9474,7 +9479,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>310</v>
       </c>
@@ -9500,7 +9505,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>312</v>
       </c>
@@ -9526,7 +9531,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>312</v>
       </c>
@@ -9543,7 +9548,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>312</v>
       </c>
@@ -9560,7 +9565,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>312</v>
       </c>
@@ -9577,7 +9582,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>312</v>
       </c>
@@ -9594,7 +9599,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>318</v>
       </c>
@@ -9620,7 +9625,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>318</v>
       </c>
@@ -9637,7 +9642,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>318</v>
       </c>
@@ -9654,7 +9659,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>318</v>
       </c>
@@ -9671,7 +9676,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>318</v>
       </c>
@@ -9688,7 +9693,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>318</v>
       </c>
@@ -9705,7 +9710,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>318</v>
       </c>
@@ -9722,7 +9727,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>318</v>
       </c>
@@ -9739,7 +9744,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>327</v>
       </c>
@@ -9768,7 +9773,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>327</v>
       </c>
@@ -9788,7 +9793,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>327</v>
       </c>
@@ -9808,7 +9813,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>327</v>
       </c>
@@ -9828,7 +9833,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>268</v>
       </c>
@@ -9854,7 +9859,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>268</v>
       </c>
@@ -9874,7 +9879,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>268</v>
       </c>
@@ -9894,7 +9899,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>268</v>
       </c>
@@ -9914,7 +9919,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>268</v>
       </c>
@@ -9934,7 +9939,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>268</v>
       </c>
@@ -9954,7 +9959,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>268</v>
       </c>
@@ -9974,7 +9979,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>268</v>
       </c>
@@ -9994,7 +9999,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>268</v>
       </c>
@@ -10014,7 +10019,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>342</v>
       </c>
@@ -10040,7 +10045,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>342</v>
       </c>
@@ -10060,7 +10065,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>342</v>
       </c>
@@ -10080,7 +10085,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>342</v>
       </c>
@@ -10100,7 +10105,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>343</v>
       </c>
@@ -10126,7 +10131,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>343</v>
       </c>
@@ -10146,7 +10151,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>343</v>
       </c>
@@ -10166,7 +10171,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>343</v>
       </c>
@@ -10186,7 +10191,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>580</v>
       </c>
@@ -10215,7 +10220,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>344</v>
       </c>
@@ -10241,7 +10246,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>346</v>
       </c>
@@ -10270,7 +10275,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>346</v>
       </c>
@@ -10290,7 +10295,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>346</v>
       </c>
@@ -10310,7 +10315,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>346</v>
       </c>
@@ -10330,7 +10335,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>346</v>
       </c>
@@ -10350,7 +10355,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>346</v>
       </c>
@@ -10370,7 +10375,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>346</v>
       </c>
@@ -10390,7 +10395,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>346</v>
       </c>
@@ -10410,7 +10415,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>346</v>
       </c>
@@ -10430,7 +10435,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>346</v>
       </c>
@@ -10450,7 +10455,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>346</v>
       </c>
@@ -10470,7 +10475,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>346</v>
       </c>
@@ -10490,7 +10495,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>362</v>
       </c>
@@ -10513,7 +10518,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>362</v>
       </c>
@@ -10530,7 +10535,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>362</v>
       </c>
@@ -10547,7 +10552,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>362</v>
       </c>
@@ -10564,7 +10569,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>362</v>
       </c>
@@ -10581,7 +10586,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>362</v>
       </c>
@@ -10598,7 +10603,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>369</v>
       </c>
@@ -10624,7 +10629,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>369</v>
       </c>
@@ -10644,7 +10649,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>369</v>
       </c>
@@ -10664,7 +10669,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>369</v>
       </c>
@@ -10684,7 +10689,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>369</v>
       </c>
@@ -10704,7 +10709,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>375</v>
       </c>
@@ -10730,7 +10735,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>375</v>
       </c>
@@ -10747,7 +10752,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>375</v>
       </c>
@@ -10764,7 +10769,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>375</v>
       </c>
@@ -10781,7 +10786,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>375</v>
       </c>
@@ -10798,7 +10803,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>382</v>
       </c>
@@ -10821,7 +10826,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>382</v>
       </c>
@@ -10838,7 +10843,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>382</v>
       </c>
@@ -10855,7 +10860,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>382</v>
       </c>
@@ -10872,7 +10877,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>382</v>
       </c>
@@ -10889,7 +10894,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>382</v>
       </c>
@@ -10906,7 +10911,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>382</v>
       </c>
@@ -10923,7 +10928,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>389</v>
       </c>
@@ -10949,7 +10954,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>389</v>
       </c>
@@ -10969,7 +10974,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>389</v>
       </c>
@@ -10989,7 +10994,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>389</v>
       </c>
@@ -11009,7 +11014,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>389</v>
       </c>
@@ -11029,7 +11034,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>395</v>
       </c>
@@ -11052,7 +11057,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="446" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>395</v>
       </c>
@@ -11069,7 +11074,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>395</v>
       </c>
@@ -11086,7 +11091,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>395</v>
       </c>
@@ -11103,7 +11108,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="449" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>395</v>
       </c>
@@ -11120,7 +11125,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="450" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>395</v>
       </c>
@@ -11137,7 +11142,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="451" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>395</v>
       </c>
@@ -11154,7 +11159,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="452" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>397</v>
       </c>
@@ -11180,7 +11185,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="453" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>397</v>
       </c>
@@ -11200,7 +11205,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="454" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>397</v>
       </c>
@@ -11220,7 +11225,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="455" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>397</v>
       </c>
@@ -11240,7 +11245,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="456" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>397</v>
       </c>
@@ -11260,7 +11265,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="457" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>401</v>
       </c>
@@ -11289,7 +11294,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="458" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>401</v>
       </c>
@@ -11309,7 +11314,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="459" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>401</v>
       </c>
@@ -11329,7 +11334,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="460" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>401</v>
       </c>
@@ -11349,7 +11354,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="461" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>401</v>
       </c>
@@ -11369,7 +11374,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="462" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>401</v>
       </c>
@@ -11389,7 +11394,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="463" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>403</v>
       </c>
@@ -11418,7 +11423,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="464" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>403</v>
       </c>
@@ -11438,7 +11443,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>403</v>
       </c>
@@ -11458,7 +11463,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="466" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>403</v>
       </c>
@@ -11478,7 +11483,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>403</v>
       </c>
@@ -11498,7 +11503,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="468" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>403</v>
       </c>
@@ -11518,7 +11523,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="469" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>405</v>
       </c>
@@ -11547,7 +11552,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="470" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>405</v>
       </c>
@@ -11567,7 +11572,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="471" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>405</v>
       </c>
@@ -11587,7 +11592,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="472" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>405</v>
       </c>
@@ -11607,7 +11612,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>405</v>
       </c>
@@ -11627,7 +11632,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="474" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>405</v>
       </c>
@@ -11647,7 +11652,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="475" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>407</v>
       </c>
@@ -11676,7 +11681,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="476" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>407</v>
       </c>
@@ -11696,7 +11701,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="477" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>407</v>
       </c>
@@ -11716,7 +11721,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="478" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>407</v>
       </c>
@@ -11736,7 +11741,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="479" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>407</v>
       </c>
@@ -11756,7 +11761,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="480" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>407</v>
       </c>
@@ -11776,7 +11781,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="481" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>409</v>
       </c>
@@ -11805,7 +11810,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="482" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>409</v>
       </c>
@@ -11825,7 +11830,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="483" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>409</v>
       </c>
@@ -11845,7 +11850,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="484" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>409</v>
       </c>
@@ -11865,7 +11870,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="485" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>409</v>
       </c>
@@ -11885,7 +11890,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="486" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>409</v>
       </c>
@@ -11905,7 +11910,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="487" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>411</v>
       </c>
@@ -11934,7 +11939,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="488" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>411</v>
       </c>
@@ -11954,7 +11959,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="489" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>411</v>
       </c>
@@ -11974,7 +11979,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="490" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>411</v>
       </c>
@@ -11994,7 +11999,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="491" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>411</v>
       </c>
@@ -12014,7 +12019,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="492" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>411</v>
       </c>
@@ -12034,7 +12039,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="493" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>413</v>
       </c>
@@ -12063,7 +12068,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="494" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>413</v>
       </c>
@@ -12083,7 +12088,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="495" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>413</v>
       </c>
@@ -12103,7 +12108,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="496" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>413</v>
       </c>
@@ -12123,7 +12128,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="497" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>413</v>
       </c>
@@ -12143,7 +12148,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="498" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>413</v>
       </c>
@@ -12163,7 +12168,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="499" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>415</v>
       </c>
@@ -12192,7 +12197,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="500" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>415</v>
       </c>
@@ -12212,7 +12217,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="501" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>415</v>
       </c>
@@ -12232,7 +12237,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="502" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>415</v>
       </c>
@@ -12252,7 +12257,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="503" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>415</v>
       </c>
@@ -12272,7 +12277,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="504" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>415</v>
       </c>
@@ -12292,7 +12297,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="505" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>422</v>
       </c>
@@ -12318,7 +12323,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="506" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>424</v>
       </c>
@@ -12344,7 +12349,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="507" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>426</v>
       </c>
@@ -12370,7 +12375,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="508" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>428</v>
       </c>
@@ -12393,7 +12398,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="509" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>430</v>
       </c>
@@ -12416,7 +12421,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="510" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>432</v>
       </c>
@@ -12439,7 +12444,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="511" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>434</v>
       </c>
@@ -12462,7 +12467,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="512" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>436</v>
       </c>
@@ -12488,7 +12493,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="513" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>438</v>
       </c>
@@ -12511,7 +12516,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="514" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>440</v>
       </c>
@@ -12534,7 +12539,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="515" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>442</v>
       </c>
@@ -12557,7 +12562,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="516" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>444</v>
       </c>
@@ -12580,7 +12585,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="517" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>446</v>
       </c>
@@ -12603,7 +12608,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="518" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>448</v>
       </c>
@@ -12626,7 +12631,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="519" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>450</v>
       </c>
@@ -12652,7 +12657,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="520" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>450</v>
       </c>
@@ -12669,7 +12674,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="521" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>450</v>
       </c>
@@ -12686,7 +12691,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="522" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>450</v>
       </c>
@@ -12703,7 +12708,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="523" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>450</v>
       </c>
@@ -12720,7 +12725,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="524" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>450</v>
       </c>
@@ -12737,7 +12742,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="525" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>450</v>
       </c>
@@ -12754,7 +12759,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="526" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>450</v>
       </c>
@@ -12771,7 +12776,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="527" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>450</v>
       </c>
@@ -12788,7 +12793,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="528" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>450</v>
       </c>
@@ -12805,7 +12810,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="529" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>450</v>
       </c>
@@ -12822,7 +12827,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="530" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>450</v>
       </c>
@@ -12839,7 +12844,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="531" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>450</v>
       </c>
@@ -12856,7 +12861,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="532" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>452</v>
       </c>
@@ -12882,7 +12887,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="533" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>452</v>
       </c>
@@ -12899,7 +12904,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="534" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>452</v>
       </c>
@@ -12916,7 +12921,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="535" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>452</v>
       </c>
@@ -12933,7 +12938,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="536" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>452</v>
       </c>
@@ -12950,7 +12955,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="537" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>452</v>
       </c>
@@ -12967,7 +12972,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="538" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>452</v>
       </c>
@@ -12984,7 +12989,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="539" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>452</v>
       </c>
@@ -13001,7 +13006,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="540" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>452</v>
       </c>
@@ -13018,7 +13023,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="541" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>452</v>
       </c>
@@ -13035,7 +13040,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="542" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>452</v>
       </c>
@@ -13052,7 +13057,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="543" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>452</v>
       </c>
@@ -13069,7 +13074,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="544" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>452</v>
       </c>
@@ -13086,7 +13091,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="545" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>470</v>
       </c>
@@ -13112,7 +13117,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="546" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>470</v>
       </c>
@@ -13129,7 +13134,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="547" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>470</v>
       </c>
@@ -13146,7 +13151,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="548" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>470</v>
       </c>
@@ -13163,7 +13168,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="549" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:12" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>472</v>
       </c>
@@ -13189,7 +13194,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="550" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>472</v>
       </c>
@@ -13206,7 +13211,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="551" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>472</v>
       </c>
@@ -13223,7 +13228,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="552" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>472</v>
       </c>
@@ -13240,7 +13245,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="553" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>476</v>
       </c>
@@ -13266,7 +13271,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="554" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>476</v>
       </c>
@@ -13283,7 +13288,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="555" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>476</v>
       </c>
@@ -13300,7 +13305,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="556" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>476</v>
       </c>
@@ -13317,7 +13322,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="557" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>476</v>
       </c>
@@ -13334,7 +13339,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="558" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>476</v>
       </c>
@@ -13351,7 +13356,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="559" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>478</v>
       </c>
@@ -13377,7 +13382,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="560" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>478</v>
       </c>
@@ -13394,7 +13399,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>478</v>
       </c>
@@ -13411,7 +13416,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>478</v>
       </c>
@@ -13428,7 +13433,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>478</v>
       </c>
@@ -13445,7 +13450,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>478</v>
       </c>
@@ -13462,7 +13467,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>485</v>
       </c>
@@ -13485,7 +13490,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>487</v>
       </c>
@@ -13508,7 +13513,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>489</v>
       </c>
@@ -13531,7 +13536,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>491</v>
       </c>
@@ -13554,7 +13559,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>493</v>
       </c>
@@ -13577,7 +13582,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>495</v>
       </c>
@@ -13600,7 +13605,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>497</v>
       </c>
@@ -13623,7 +13628,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>499</v>
       </c>
@@ -13646,7 +13651,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>501</v>
       </c>
@@ -13669,7 +13674,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>503</v>
       </c>
@@ -13692,7 +13697,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>505</v>
       </c>
@@ -13715,7 +13720,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>507</v>
       </c>
@@ -13738,7 +13743,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="577" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>509</v>
       </c>
@@ -13761,7 +13766,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="578" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>510</v>
       </c>
@@ -13784,7 +13789,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="579" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>512</v>
       </c>
@@ -13807,7 +13812,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="580" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>513</v>
       </c>
@@ -13833,7 +13838,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="581" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>516</v>
       </c>
@@ -13862,7 +13867,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="582" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>516</v>
       </c>
@@ -13879,7 +13884,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="583" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>516</v>
       </c>
@@ -13896,7 +13901,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="584" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>516</v>
       </c>
@@ -13913,7 +13918,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="585" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>516</v>
       </c>
@@ -13930,7 +13935,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="586" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>516</v>
       </c>
@@ -13947,7 +13952,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="587" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>0</v>
       </c>
@@ -13971,13 +13976,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N587">
-    <sortState ref="A2:M587">
+  <autoFilter ref="A1:N587" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M587">
       <sortCondition ref="J1:J587"/>
     </sortState>
   </autoFilter>
   <dataValidations count="1">
-    <dataValidation type="decimal" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
+    <dataValidation type="decimal" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -13985,13 +13990,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>validation_values!$B$1:$B$2</xm:f>
           </x14:formula1>
           <xm:sqref>J2:L1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>validation_values!$A$1:$A$62</xm:f>
           </x14:formula1>
@@ -14004,16 +14009,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>534</v>
       </c>
@@ -14021,7 +14026,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>535</v>
       </c>
@@ -14029,202 +14034,202 @@
         <v>627</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>573</v>
       </c>

--- a/inputs/Example_Dictionary.xlsx
+++ b/inputs/Example_Dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hdvincelette/Documents/GitHub/xlsx-to-mdJSON-dictionary/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00522DCA-BCF0-CE48-8343-A449D04977D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C54FC9-1DA1-AF4D-BC6D-46F148EB5288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15080" yWindow="500" windowWidth="14220" windowHeight="15860" tabRatio="747" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="500" windowWidth="18820" windowHeight="15860" tabRatio="747" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_dictionary" sheetId="1" r:id="rId1"/>
@@ -2731,7 +2731,8 @@
   <dimension ref="A1:M587"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <pane ySplit="1" topLeftCell="A253" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/inputs/Example_Dictionary.xlsx
+++ b/inputs/Example_Dictionary.xlsx
@@ -16,14 +16,14 @@
     <sheet name="validation_values" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_dictionary!$A$1:$N$587</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_dictionary!$A$1:$M$587</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3224" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3168" uniqueCount="628">
   <si>
     <t>Notes</t>
   </si>
@@ -1772,9 +1772,6 @@
   </si>
   <si>
     <t>colname</t>
-  </si>
-  <si>
-    <t>domainId</t>
   </si>
   <si>
     <t>domainItem_name</t>
@@ -2727,11 +2724,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M587"/>
+  <dimension ref="A1:L587"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2747,11 +2744,10 @@
     <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>525</v>
       </c>
@@ -2759,10 +2755,10 @@
         <v>526</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>584</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>585</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>528</v>
@@ -2786,13 +2782,10 @@
         <v>574</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="M1" s="2" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2809,16 +2802,13 @@
         <v>6</v>
       </c>
       <c r="J2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K2" t="s">
-        <v>622</v>
-      </c>
-      <c r="L2" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2835,7 +2825,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2852,7 +2842,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -2866,13 +2856,13 @@
         <v>582</v>
       </c>
       <c r="E5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J5" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2889,10 +2879,10 @@
         <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -2909,10 +2899,10 @@
         <v>15</v>
       </c>
       <c r="J7" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -2926,7 +2916,7 @@
         <v>582</v>
       </c>
       <c r="E8" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -2935,10 +2925,10 @@
         <v>12</v>
       </c>
       <c r="J8" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -2961,12 +2951,12 @@
         <v>31</v>
       </c>
       <c r="J9" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B10" t="s">
         <v>575</v>
@@ -2981,15 +2971,15 @@
         <v>19</v>
       </c>
       <c r="J10" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K10" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B11" t="s">
         <v>575</v>
@@ -3004,18 +2994,15 @@
         <v>20</v>
       </c>
       <c r="J11" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K11" t="s">
-        <v>622</v>
-      </c>
-      <c r="L11" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B12" t="s">
         <v>575</v>
@@ -3030,9 +3017,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B13" t="s">
         <v>575</v>
@@ -3047,9 +3034,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B14" t="s">
         <v>575</v>
@@ -3064,9 +3051,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B15" t="s">
         <v>575</v>
@@ -3081,9 +3068,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B16" t="s">
         <v>575</v>
@@ -3098,9 +3085,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B17" t="s">
         <v>575</v>
@@ -3115,18 +3102,15 @@
         <v>31</v>
       </c>
       <c r="J17" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K17" t="s">
-        <v>622</v>
-      </c>
-      <c r="L17" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B18" t="s">
         <v>575</v>
@@ -3141,9 +3125,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B19" t="s">
         <v>575</v>
@@ -3158,9 +3142,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B20" t="s">
         <v>575</v>
@@ -3175,9 +3159,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B21" t="s">
         <v>575</v>
@@ -3192,9 +3176,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B22" t="s">
         <v>575</v>
@@ -3209,9 +3193,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B23" t="s">
         <v>575</v>
@@ -3226,9 +3210,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B24" t="s">
         <v>575</v>
@@ -3243,18 +3227,15 @@
         <v>44</v>
       </c>
       <c r="J24" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K24" t="s">
-        <v>622</v>
-      </c>
-      <c r="L24" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B25" t="s">
         <v>575</v>
@@ -3269,9 +3250,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B26" t="s">
         <v>575</v>
@@ -3286,9 +3267,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B27" t="s">
         <v>575</v>
@@ -3303,9 +3284,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B28" t="s">
         <v>575</v>
@@ -3317,12 +3298,12 @@
         <v>47</v>
       </c>
       <c r="E28" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B29" t="s">
         <v>575</v>
@@ -3337,9 +3318,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B30" t="s">
         <v>575</v>
@@ -3354,9 +3335,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B31" t="s">
         <v>575</v>
@@ -3371,9 +3352,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B32" t="s">
         <v>575</v>
@@ -3388,9 +3369,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B33" t="s">
         <v>575</v>
@@ -3405,9 +3386,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B34" t="s">
         <v>575</v>
@@ -3422,7 +3403,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>60</v>
       </c>
@@ -3436,16 +3417,16 @@
         <v>582</v>
       </c>
       <c r="E35" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="J35" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K35" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>61</v>
       </c>
@@ -3459,16 +3440,16 @@
         <v>582</v>
       </c>
       <c r="E36" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J36" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K36" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>62</v>
       </c>
@@ -3488,10 +3469,10 @@
         <v>578</v>
       </c>
       <c r="J37" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>64</v>
       </c>
@@ -3511,10 +3492,10 @@
         <v>578</v>
       </c>
       <c r="J38" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>66</v>
       </c>
@@ -3531,10 +3512,10 @@
         <v>67</v>
       </c>
       <c r="J39" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>68</v>
       </c>
@@ -3551,10 +3532,10 @@
         <v>69</v>
       </c>
       <c r="J40" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>70</v>
       </c>
@@ -3571,16 +3552,13 @@
         <v>71</v>
       </c>
       <c r="J41" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K41" t="s">
-        <v>622</v>
-      </c>
-      <c r="L41" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>70</v>
       </c>
@@ -3597,7 +3575,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>70</v>
       </c>
@@ -3614,7 +3592,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>76</v>
       </c>
@@ -3631,10 +3609,10 @@
         <v>77</v>
       </c>
       <c r="J44" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>78</v>
       </c>
@@ -3648,16 +3626,16 @@
         <v>582</v>
       </c>
       <c r="E45" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="J45" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K45" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>79</v>
       </c>
@@ -3671,16 +3649,16 @@
         <v>582</v>
       </c>
       <c r="E46" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J46" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K46" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>80</v>
       </c>
@@ -3697,10 +3675,10 @@
         <v>81</v>
       </c>
       <c r="J47" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>82</v>
       </c>
@@ -3717,10 +3695,10 @@
         <v>83</v>
       </c>
       <c r="J48" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>84</v>
       </c>
@@ -3737,16 +3715,13 @@
         <v>85</v>
       </c>
       <c r="J49" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K49" t="s">
-        <v>622</v>
-      </c>
-      <c r="L49" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>84</v>
       </c>
@@ -3763,7 +3738,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>84</v>
       </c>
@@ -3780,7 +3755,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>84</v>
       </c>
@@ -3797,7 +3772,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>84</v>
       </c>
@@ -3814,7 +3789,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>84</v>
       </c>
@@ -3831,7 +3806,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>84</v>
       </c>
@@ -3848,7 +3823,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>84</v>
       </c>
@@ -3865,7 +3840,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>84</v>
       </c>
@@ -3882,7 +3857,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>96</v>
       </c>
@@ -3899,16 +3874,13 @@
         <v>97</v>
       </c>
       <c r="J58" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K58" t="s">
-        <v>622</v>
-      </c>
-      <c r="L58" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>96</v>
       </c>
@@ -3925,7 +3897,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>96</v>
       </c>
@@ -3942,7 +3914,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>96</v>
       </c>
@@ -3959,7 +3931,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>96</v>
       </c>
@@ -3976,7 +3948,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>96</v>
       </c>
@@ -3993,7 +3965,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>96</v>
       </c>
@@ -4010,7 +3982,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>96</v>
       </c>
@@ -4027,7 +3999,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>96</v>
       </c>
@@ -4044,7 +4016,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>96</v>
       </c>
@@ -4061,7 +4033,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>96</v>
       </c>
@@ -4078,7 +4050,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>96</v>
       </c>
@@ -4095,7 +4067,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>96</v>
       </c>
@@ -4112,7 +4084,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>96</v>
       </c>
@@ -4129,7 +4101,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>96</v>
       </c>
@@ -4146,7 +4118,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>96</v>
       </c>
@@ -4163,7 +4135,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>96</v>
       </c>
@@ -4180,7 +4152,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>115</v>
       </c>
@@ -4194,19 +4166,16 @@
         <v>582</v>
       </c>
       <c r="E75" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="J75" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K75" t="s">
-        <v>622</v>
-      </c>
-      <c r="L75" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>115</v>
       </c>
@@ -4223,7 +4192,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>115</v>
       </c>
@@ -4240,7 +4209,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>115</v>
       </c>
@@ -4257,7 +4226,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>115</v>
       </c>
@@ -4274,7 +4243,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>115</v>
       </c>
@@ -4291,7 +4260,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>115</v>
       </c>
@@ -4308,7 +4277,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>115</v>
       </c>
@@ -4325,7 +4294,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>115</v>
       </c>
@@ -4342,7 +4311,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>115</v>
       </c>
@@ -4359,7 +4328,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>115</v>
       </c>
@@ -4376,7 +4345,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>115</v>
       </c>
@@ -4393,7 +4362,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>115</v>
       </c>
@@ -4410,7 +4379,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>115</v>
       </c>
@@ -4427,7 +4396,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>115</v>
       </c>
@@ -4444,7 +4413,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>115</v>
       </c>
@@ -4461,7 +4430,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>115</v>
       </c>
@@ -4478,7 +4447,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>115</v>
       </c>
@@ -4495,7 +4464,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>116</v>
       </c>
@@ -4509,19 +4478,16 @@
         <v>582</v>
       </c>
       <c r="E93" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="J93" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K93" t="s">
-        <v>622</v>
-      </c>
-      <c r="L93" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>116</v>
       </c>
@@ -4538,7 +4504,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>116</v>
       </c>
@@ -4555,7 +4521,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>116</v>
       </c>
@@ -4572,7 +4538,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>116</v>
       </c>
@@ -4589,7 +4555,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>116</v>
       </c>
@@ -4606,7 +4572,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>116</v>
       </c>
@@ -4623,7 +4589,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>116</v>
       </c>
@@ -4640,7 +4606,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>116</v>
       </c>
@@ -4657,7 +4623,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>116</v>
       </c>
@@ -4674,7 +4640,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>116</v>
       </c>
@@ -4691,7 +4657,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>116</v>
       </c>
@@ -4708,7 +4674,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>116</v>
       </c>
@@ -4725,7 +4691,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>116</v>
       </c>
@@ -4742,7 +4708,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>116</v>
       </c>
@@ -4759,7 +4725,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>116</v>
       </c>
@@ -4776,7 +4742,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>116</v>
       </c>
@@ -4793,7 +4759,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>116</v>
       </c>
@@ -4810,7 +4776,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>117</v>
       </c>
@@ -4824,19 +4790,16 @@
         <v>582</v>
       </c>
       <c r="E111" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="J111" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K111" t="s">
-        <v>622</v>
-      </c>
-      <c r="L111" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>117</v>
       </c>
@@ -5125,7 +5088,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>118</v>
       </c>
@@ -5139,19 +5102,16 @@
         <v>582</v>
       </c>
       <c r="E129" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="J129" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K129" t="s">
-        <v>622</v>
-      </c>
-      <c r="L129" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>118</v>
       </c>
@@ -5168,7 +5128,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>118</v>
       </c>
@@ -5185,7 +5145,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>118</v>
       </c>
@@ -5202,7 +5162,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>118</v>
       </c>
@@ -5219,7 +5179,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>118</v>
       </c>
@@ -5236,7 +5196,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>118</v>
       </c>
@@ -5253,7 +5213,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>118</v>
       </c>
@@ -5270,7 +5230,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>118</v>
       </c>
@@ -5287,7 +5247,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>118</v>
       </c>
@@ -5304,7 +5264,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>118</v>
       </c>
@@ -5321,7 +5281,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>118</v>
       </c>
@@ -5338,7 +5298,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>118</v>
       </c>
@@ -5355,7 +5315,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>118</v>
       </c>
@@ -5372,7 +5332,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>118</v>
       </c>
@@ -5389,7 +5349,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>118</v>
       </c>
@@ -5406,7 +5366,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>118</v>
       </c>
@@ -5423,7 +5383,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>118</v>
       </c>
@@ -5440,7 +5400,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>119</v>
       </c>
@@ -5454,19 +5414,16 @@
         <v>582</v>
       </c>
       <c r="E147" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="J147" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K147" t="s">
-        <v>622</v>
-      </c>
-      <c r="L147" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>119</v>
       </c>
@@ -5483,7 +5440,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>119</v>
       </c>
@@ -5500,7 +5457,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>119</v>
       </c>
@@ -5517,7 +5474,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>119</v>
       </c>
@@ -5534,7 +5491,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>119</v>
       </c>
@@ -5551,7 +5508,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>119</v>
       </c>
@@ -5568,7 +5525,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>119</v>
       </c>
@@ -5585,7 +5542,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>119</v>
       </c>
@@ -5602,7 +5559,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>119</v>
       </c>
@@ -5619,7 +5576,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>119</v>
       </c>
@@ -5636,7 +5593,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>119</v>
       </c>
@@ -5653,7 +5610,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>119</v>
       </c>
@@ -5670,7 +5627,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>119</v>
       </c>
@@ -5687,7 +5644,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>119</v>
       </c>
@@ -5704,7 +5661,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>119</v>
       </c>
@@ -5721,7 +5678,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>119</v>
       </c>
@@ -5738,7 +5695,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>119</v>
       </c>
@@ -5755,7 +5712,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>120</v>
       </c>
@@ -5769,19 +5726,16 @@
         <v>582</v>
       </c>
       <c r="E165" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="J165" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K165" t="s">
-        <v>622</v>
-      </c>
-      <c r="L165" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>120</v>
       </c>
@@ -5798,7 +5752,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>120</v>
       </c>
@@ -5815,7 +5769,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>120</v>
       </c>
@@ -5832,7 +5786,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>120</v>
       </c>
@@ -5849,7 +5803,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>120</v>
       </c>
@@ -5866,7 +5820,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>120</v>
       </c>
@@ -5883,7 +5837,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>120</v>
       </c>
@@ -5900,7 +5854,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>120</v>
       </c>
@@ -5917,7 +5871,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>120</v>
       </c>
@@ -5934,7 +5888,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>120</v>
       </c>
@@ -5951,7 +5905,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>120</v>
       </c>
@@ -5968,7 +5922,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>120</v>
       </c>
@@ -5985,7 +5939,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>120</v>
       </c>
@@ -6002,7 +5956,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>120</v>
       </c>
@@ -6019,7 +5973,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>120</v>
       </c>
@@ -6036,7 +5990,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>120</v>
       </c>
@@ -6053,7 +6007,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>120</v>
       </c>
@@ -6070,7 +6024,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>121</v>
       </c>
@@ -6084,19 +6038,16 @@
         <v>582</v>
       </c>
       <c r="E183" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="J183" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K183" t="s">
-        <v>622</v>
-      </c>
-      <c r="L183" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>121</v>
       </c>
@@ -6113,7 +6064,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>121</v>
       </c>
@@ -6130,7 +6081,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>121</v>
       </c>
@@ -6147,7 +6098,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>121</v>
       </c>
@@ -6164,7 +6115,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>121</v>
       </c>
@@ -6181,7 +6132,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>121</v>
       </c>
@@ -6198,7 +6149,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>121</v>
       </c>
@@ -6215,7 +6166,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>121</v>
       </c>
@@ -6232,7 +6183,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>121</v>
       </c>
@@ -6249,7 +6200,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>121</v>
       </c>
@@ -6266,7 +6217,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>121</v>
       </c>
@@ -6283,7 +6234,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>121</v>
       </c>
@@ -6300,7 +6251,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>121</v>
       </c>
@@ -6317,7 +6268,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>121</v>
       </c>
@@ -6334,7 +6285,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>121</v>
       </c>
@@ -6351,7 +6302,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>121</v>
       </c>
@@ -6368,7 +6319,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>121</v>
       </c>
@@ -6385,7 +6336,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>122</v>
       </c>
@@ -6399,19 +6350,16 @@
         <v>582</v>
       </c>
       <c r="E201" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J201" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K201" t="s">
-        <v>622</v>
-      </c>
-      <c r="L201" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>122</v>
       </c>
@@ -6428,7 +6376,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>122</v>
       </c>
@@ -6445,7 +6393,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>122</v>
       </c>
@@ -6462,7 +6410,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>122</v>
       </c>
@@ -6479,7 +6427,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>122</v>
       </c>
@@ -6496,7 +6444,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>122</v>
       </c>
@@ -6513,7 +6461,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>122</v>
       </c>
@@ -6530,7 +6478,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>122</v>
       </c>
@@ -6547,7 +6495,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>122</v>
       </c>
@@ -6564,7 +6512,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>122</v>
       </c>
@@ -6581,7 +6529,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>122</v>
       </c>
@@ -6598,7 +6546,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>122</v>
       </c>
@@ -6615,7 +6563,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>122</v>
       </c>
@@ -6632,7 +6580,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>122</v>
       </c>
@@ -6649,7 +6597,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>122</v>
       </c>
@@ -6666,7 +6614,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>122</v>
       </c>
@@ -6683,7 +6631,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>122</v>
       </c>
@@ -6700,7 +6648,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>156</v>
       </c>
@@ -6717,16 +6665,13 @@
         <v>157</v>
       </c>
       <c r="J219" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K219" t="s">
-        <v>622</v>
-      </c>
-      <c r="L219" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>156</v>
       </c>
@@ -6743,7 +6688,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>156</v>
       </c>
@@ -6760,7 +6705,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>156</v>
       </c>
@@ -6777,7 +6722,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>156</v>
       </c>
@@ -6794,7 +6739,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>158</v>
       </c>
@@ -6811,16 +6756,13 @@
         <v>159</v>
       </c>
       <c r="J224" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K224" t="s">
-        <v>622</v>
-      </c>
-      <c r="L224" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>158</v>
       </c>
@@ -6837,7 +6779,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>158</v>
       </c>
@@ -6854,7 +6796,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>158</v>
       </c>
@@ -6871,7 +6813,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>158</v>
       </c>
@@ -6888,7 +6830,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>165</v>
       </c>
@@ -6905,13 +6847,13 @@
         <v>166</v>
       </c>
       <c r="J229" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K229" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>167</v>
       </c>
@@ -6928,13 +6870,13 @@
         <v>168</v>
       </c>
       <c r="J230" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K230" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>169</v>
       </c>
@@ -6951,13 +6893,13 @@
         <v>170</v>
       </c>
       <c r="J231" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K231" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>171</v>
       </c>
@@ -6971,16 +6913,16 @@
         <v>582</v>
       </c>
       <c r="E232" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J232" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K232" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>172</v>
       </c>
@@ -6994,16 +6936,16 @@
         <v>582</v>
       </c>
       <c r="E233" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="J233" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K233" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>172</v>
       </c>
@@ -7020,7 +6962,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>175</v>
       </c>
@@ -7034,16 +6976,16 @@
         <v>582</v>
       </c>
       <c r="E235" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J235" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K235" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>175</v>
       </c>
@@ -7060,7 +7002,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>176</v>
       </c>
@@ -7077,13 +7019,13 @@
         <v>177</v>
       </c>
       <c r="J237" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K237" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>178</v>
       </c>
@@ -7100,16 +7042,13 @@
         <v>179</v>
       </c>
       <c r="J238" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K238" t="s">
-        <v>622</v>
-      </c>
-      <c r="L238" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>178</v>
       </c>
@@ -7126,7 +7065,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>178</v>
       </c>
@@ -7143,7 +7082,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>178</v>
       </c>
@@ -7160,7 +7099,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>178</v>
       </c>
@@ -7177,7 +7116,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>178</v>
       </c>
@@ -7194,7 +7133,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>178</v>
       </c>
@@ -7211,7 +7150,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>178</v>
       </c>
@@ -7228,7 +7167,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>178</v>
       </c>
@@ -7245,7 +7184,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>196</v>
       </c>
@@ -7262,16 +7201,13 @@
         <v>197</v>
       </c>
       <c r="J247" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K247" t="s">
-        <v>622</v>
-      </c>
-      <c r="L247" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>196</v>
       </c>
@@ -7288,7 +7224,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>196</v>
       </c>
@@ -7305,7 +7241,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>196</v>
       </c>
@@ -7322,7 +7258,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>196</v>
       </c>
@@ -7339,7 +7275,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>196</v>
       </c>
@@ -7356,7 +7292,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>196</v>
       </c>
@@ -7373,7 +7309,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>196</v>
       </c>
@@ -7390,7 +7326,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>196</v>
       </c>
@@ -7407,7 +7343,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>214</v>
       </c>
@@ -7424,16 +7360,13 @@
         <v>215</v>
       </c>
       <c r="J256" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K256" t="s">
-        <v>622</v>
-      </c>
-      <c r="L256" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>214</v>
       </c>
@@ -7450,7 +7383,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>214</v>
       </c>
@@ -7467,7 +7400,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>214</v>
       </c>
@@ -7484,7 +7417,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>216</v>
       </c>
@@ -7501,16 +7434,13 @@
         <v>217</v>
       </c>
       <c r="J260" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K260" t="s">
-        <v>622</v>
-      </c>
-      <c r="L260" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>216</v>
       </c>
@@ -7527,7 +7457,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>216</v>
       </c>
@@ -7544,7 +7474,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>216</v>
       </c>
@@ -7561,7 +7491,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>221</v>
       </c>
@@ -7578,16 +7508,13 @@
         <v>222</v>
       </c>
       <c r="J264" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K264" t="s">
-        <v>622</v>
-      </c>
-      <c r="L264" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>221</v>
       </c>
@@ -7604,7 +7531,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>221</v>
       </c>
@@ -7621,7 +7548,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>221</v>
       </c>
@@ -7638,7 +7565,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>221</v>
       </c>
@@ -7655,7 +7582,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>221</v>
       </c>
@@ -7672,7 +7599,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>221</v>
       </c>
@@ -7689,7 +7616,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>221</v>
       </c>
@@ -7706,7 +7633,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>221</v>
       </c>
@@ -7723,7 +7650,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>221</v>
       </c>
@@ -7740,7 +7667,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>221</v>
       </c>
@@ -7757,7 +7684,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>221</v>
       </c>
@@ -7774,7 +7701,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>221</v>
       </c>
@@ -7791,7 +7718,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>221</v>
       </c>
@@ -7808,7 +7735,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>221</v>
       </c>
@@ -7825,7 +7752,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>221</v>
       </c>
@@ -7842,7 +7769,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>221</v>
       </c>
@@ -7859,7 +7786,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>221</v>
       </c>
@@ -7876,7 +7803,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>221</v>
       </c>
@@ -7893,7 +7820,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>221</v>
       </c>
@@ -7910,7 +7837,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>223</v>
       </c>
@@ -7927,16 +7854,13 @@
         <v>224</v>
       </c>
       <c r="J284" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K284" t="s">
-        <v>622</v>
-      </c>
-      <c r="L284" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>223</v>
       </c>
@@ -7953,7 +7877,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>223</v>
       </c>
@@ -7970,7 +7894,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>223</v>
       </c>
@@ -7987,7 +7911,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>223</v>
       </c>
@@ -8004,7 +7928,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>223</v>
       </c>
@@ -8021,7 +7945,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>223</v>
       </c>
@@ -8038,7 +7962,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>223</v>
       </c>
@@ -8055,7 +7979,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>223</v>
       </c>
@@ -8072,7 +7996,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>223</v>
       </c>
@@ -8089,7 +8013,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>223</v>
       </c>
@@ -8106,7 +8030,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>223</v>
       </c>
@@ -8123,7 +8047,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>223</v>
       </c>
@@ -8140,7 +8064,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>223</v>
       </c>
@@ -8157,7 +8081,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>223</v>
       </c>
@@ -8174,7 +8098,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>223</v>
       </c>
@@ -8191,7 +8115,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>223</v>
       </c>
@@ -8208,7 +8132,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>223</v>
       </c>
@@ -8225,7 +8149,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>223</v>
       </c>
@@ -8242,7 +8166,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>223</v>
       </c>
@@ -8259,7 +8183,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>225</v>
       </c>
@@ -8276,13 +8200,10 @@
         <v>226</v>
       </c>
       <c r="J304" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K304" t="s">
-        <v>622</v>
-      </c>
-      <c r="L304" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.3">
@@ -8557,7 +8478,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>225</v>
       </c>
@@ -8574,7 +8495,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>225</v>
       </c>
@@ -8591,7 +8512,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>225</v>
       </c>
@@ -8608,7 +8529,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>227</v>
       </c>
@@ -8625,16 +8546,13 @@
         <v>228</v>
       </c>
       <c r="J324" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K324" t="s">
-        <v>622</v>
-      </c>
-      <c r="L324" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>227</v>
       </c>
@@ -8651,7 +8569,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>227</v>
       </c>
@@ -8668,7 +8586,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>227</v>
       </c>
@@ -8685,7 +8603,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>227</v>
       </c>
@@ -8702,7 +8620,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>227</v>
       </c>
@@ -8719,7 +8637,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>227</v>
       </c>
@@ -8736,7 +8654,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>227</v>
       </c>
@@ -8753,7 +8671,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>227</v>
       </c>
@@ -8770,7 +8688,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>227</v>
       </c>
@@ -8787,7 +8705,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>227</v>
       </c>
@@ -8804,7 +8722,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>227</v>
       </c>
@@ -8821,7 +8739,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>227</v>
       </c>
@@ -8838,7 +8756,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>227</v>
       </c>
@@ -8855,7 +8773,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>227</v>
       </c>
@@ -8872,7 +8790,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>227</v>
       </c>
@@ -8889,7 +8807,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>227</v>
       </c>
@@ -8906,7 +8824,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>227</v>
       </c>
@@ -8923,7 +8841,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>227</v>
       </c>
@@ -8940,7 +8858,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>227</v>
       </c>
@@ -8957,7 +8875,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>266</v>
       </c>
@@ -8977,10 +8895,10 @@
         <v>577</v>
       </c>
       <c r="J344" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>268</v>
       </c>
@@ -8997,13 +8915,10 @@
         <v>269</v>
       </c>
       <c r="J345" t="s">
-        <v>622</v>
-      </c>
-      <c r="L345" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>268</v>
       </c>
@@ -9020,7 +8935,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>268</v>
       </c>
@@ -9037,7 +8952,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>268</v>
       </c>
@@ -9054,7 +8969,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>268</v>
       </c>
@@ -9071,7 +8986,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>268</v>
       </c>
@@ -9088,7 +9003,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>268</v>
       </c>
@@ -9105,7 +9020,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>268</v>
       </c>
@@ -9122,7 +9037,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>268</v>
       </c>
@@ -9136,10 +9051,10 @@
         <v>7</v>
       </c>
       <c r="E353" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.3">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="354" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>277</v>
       </c>
@@ -9159,10 +9074,10 @@
         <v>579</v>
       </c>
       <c r="J354" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="355" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>279</v>
       </c>
@@ -9182,10 +9097,10 @@
         <v>579</v>
       </c>
       <c r="J355" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="356" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>281</v>
       </c>
@@ -9205,10 +9120,10 @@
         <v>579</v>
       </c>
       <c r="J356" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="357" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>283</v>
       </c>
@@ -9228,10 +9143,10 @@
         <v>579</v>
       </c>
       <c r="J357" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="358" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>285</v>
       </c>
@@ -9251,10 +9166,10 @@
         <v>579</v>
       </c>
       <c r="J358" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="359" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>287</v>
       </c>
@@ -9274,10 +9189,10 @@
         <v>579</v>
       </c>
       <c r="J359" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="360" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="360" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A360" s="3" t="s">
         <v>289</v>
       </c>
@@ -9291,16 +9206,16 @@
         <v>582</v>
       </c>
       <c r="E360" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F360" s="3" t="s">
         <v>579</v>
       </c>
       <c r="J360" s="3" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="361" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>290</v>
       </c>
@@ -9320,10 +9235,10 @@
         <v>579</v>
       </c>
       <c r="J361" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="362" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>292</v>
       </c>
@@ -9343,13 +9258,13 @@
         <v>579</v>
       </c>
       <c r="J362" t="s">
-        <v>622</v>
-      </c>
-      <c r="M362" t="s">
+        <v>621</v>
+      </c>
+      <c r="L362" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>295</v>
       </c>
@@ -9369,13 +9284,13 @@
         <v>579</v>
       </c>
       <c r="J363" t="s">
-        <v>622</v>
-      </c>
-      <c r="M363" t="s">
+        <v>621</v>
+      </c>
+      <c r="L363" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>297</v>
       </c>
@@ -9395,13 +9310,13 @@
         <v>579</v>
       </c>
       <c r="J364" t="s">
-        <v>622</v>
-      </c>
-      <c r="M364" t="s">
+        <v>621</v>
+      </c>
+      <c r="L364" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>300</v>
       </c>
@@ -9421,13 +9336,13 @@
         <v>579</v>
       </c>
       <c r="J365" t="s">
-        <v>622</v>
-      </c>
-      <c r="M365" t="s">
+        <v>621</v>
+      </c>
+      <c r="L365" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>302</v>
       </c>
@@ -9447,13 +9362,13 @@
         <v>579</v>
       </c>
       <c r="J366" t="s">
-        <v>622</v>
-      </c>
-      <c r="M366" t="s">
+        <v>621</v>
+      </c>
+      <c r="L366" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>304</v>
       </c>
@@ -9473,13 +9388,13 @@
         <v>579</v>
       </c>
       <c r="J367" t="s">
-        <v>622</v>
-      </c>
-      <c r="M367" t="s">
+        <v>621</v>
+      </c>
+      <c r="L367" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>306</v>
       </c>
@@ -9499,13 +9414,13 @@
         <v>579</v>
       </c>
       <c r="J368" t="s">
-        <v>622</v>
-      </c>
-      <c r="M368" t="s">
+        <v>621</v>
+      </c>
+      <c r="L368" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>308</v>
       </c>
@@ -9522,16 +9437,13 @@
         <v>309</v>
       </c>
       <c r="J369" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="L369" t="s">
-        <v>622</v>
-      </c>
-      <c r="M369" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>308</v>
       </c>
@@ -9548,7 +9460,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>308</v>
       </c>
@@ -9565,7 +9477,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>308</v>
       </c>
@@ -9582,7 +9494,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>308</v>
       </c>
@@ -9599,7 +9511,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>314</v>
       </c>
@@ -9616,16 +9528,13 @@
         <v>315</v>
       </c>
       <c r="J374" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K374" t="s">
-        <v>622</v>
-      </c>
-      <c r="L374" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="375" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>314</v>
       </c>
@@ -9642,7 +9551,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>314</v>
       </c>
@@ -9659,7 +9568,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>314</v>
       </c>
@@ -9676,7 +9585,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>314</v>
       </c>
@@ -9693,7 +9602,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>314</v>
       </c>
@@ -9710,7 +9619,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>314</v>
       </c>
@@ -9727,7 +9636,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>314</v>
       </c>
@@ -9744,7 +9653,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>323</v>
       </c>
@@ -9761,19 +9670,16 @@
         <v>324</v>
       </c>
       <c r="J382" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K382" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="L382" t="s">
-        <v>622</v>
-      </c>
-      <c r="M382" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>323</v>
       </c>
@@ -9789,11 +9695,11 @@
       <c r="E383" t="s">
         <v>326</v>
       </c>
-      <c r="M383" t="s">
+      <c r="L383" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>323</v>
       </c>
@@ -9809,11 +9715,11 @@
       <c r="E384" t="s">
         <v>327</v>
       </c>
-      <c r="M384" t="s">
+      <c r="L384" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>323</v>
       </c>
@@ -9829,11 +9735,11 @@
       <c r="E385" t="s">
         <v>328</v>
       </c>
-      <c r="M385" t="s">
+      <c r="L385" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>264</v>
       </c>
@@ -9850,16 +9756,13 @@
         <v>329</v>
       </c>
       <c r="J386" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="L386" t="s">
-        <v>622</v>
-      </c>
-      <c r="M386" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>264</v>
       </c>
@@ -9875,11 +9778,11 @@
       <c r="E387" t="s">
         <v>330</v>
       </c>
-      <c r="M387" t="s">
+      <c r="L387" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>264</v>
       </c>
@@ -9895,11 +9798,11 @@
       <c r="E388" t="s">
         <v>331</v>
       </c>
-      <c r="M388" t="s">
+      <c r="L388" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>264</v>
       </c>
@@ -9915,11 +9818,11 @@
       <c r="E389" t="s">
         <v>332</v>
       </c>
-      <c r="M389" t="s">
+      <c r="L389" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>264</v>
       </c>
@@ -9935,11 +9838,11 @@
       <c r="E390" t="s">
         <v>333</v>
       </c>
-      <c r="M390" t="s">
+      <c r="L390" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>264</v>
       </c>
@@ -9955,11 +9858,11 @@
       <c r="E391" t="s">
         <v>334</v>
       </c>
-      <c r="M391" t="s">
+      <c r="L391" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>264</v>
       </c>
@@ -9975,11 +9878,11 @@
       <c r="E392" t="s">
         <v>335</v>
       </c>
-      <c r="M392" t="s">
+      <c r="L392" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>264</v>
       </c>
@@ -9995,11 +9898,11 @@
       <c r="E393" t="s">
         <v>336</v>
       </c>
-      <c r="M393" t="s">
+      <c r="L393" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>264</v>
       </c>
@@ -10015,11 +9918,11 @@
       <c r="E394" t="s">
         <v>337</v>
       </c>
-      <c r="M394" t="s">
+      <c r="L394" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>338</v>
       </c>
@@ -10036,16 +9939,13 @@
         <v>519</v>
       </c>
       <c r="J395" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="L395" t="s">
-        <v>622</v>
-      </c>
-      <c r="M395" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>338</v>
       </c>
@@ -10061,11 +9961,11 @@
       <c r="E396" t="s">
         <v>519</v>
       </c>
-      <c r="M396" t="s">
+      <c r="L396" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>338</v>
       </c>
@@ -10081,11 +9981,11 @@
       <c r="E397" t="s">
         <v>519</v>
       </c>
-      <c r="M397" t="s">
+      <c r="L397" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>338</v>
       </c>
@@ -10101,11 +10001,11 @@
       <c r="E398" t="s">
         <v>519</v>
       </c>
-      <c r="M398" t="s">
+      <c r="L398" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>339</v>
       </c>
@@ -10122,16 +10022,13 @@
         <v>519</v>
       </c>
       <c r="J399" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="L399" t="s">
-        <v>622</v>
-      </c>
-      <c r="M399" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>339</v>
       </c>
@@ -10147,11 +10044,11 @@
       <c r="E400" t="s">
         <v>519</v>
       </c>
-      <c r="M400" t="s">
+      <c r="L400" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>339</v>
       </c>
@@ -10167,11 +10064,11 @@
       <c r="E401" t="s">
         <v>519</v>
       </c>
-      <c r="M401" t="s">
+      <c r="L401" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>339</v>
       </c>
@@ -10187,11 +10084,11 @@
       <c r="E402" t="s">
         <v>519</v>
       </c>
-      <c r="M402" t="s">
+      <c r="L402" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>576</v>
       </c>
@@ -10205,7 +10102,7 @@
         <v>582</v>
       </c>
       <c r="E403" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H403">
         <v>0</v>
@@ -10214,13 +10111,13 @@
         <v>1</v>
       </c>
       <c r="J403" t="s">
-        <v>622</v>
-      </c>
-      <c r="M403" t="s">
+        <v>621</v>
+      </c>
+      <c r="L403" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>340</v>
       </c>
@@ -10237,16 +10134,16 @@
         <v>341</v>
       </c>
       <c r="J404" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K404" t="s">
-        <v>622</v>
-      </c>
-      <c r="M404" t="s">
+        <v>621</v>
+      </c>
+      <c r="L404" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>342</v>
       </c>
@@ -10263,19 +10160,16 @@
         <v>343</v>
       </c>
       <c r="J405" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K405" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="L405" t="s">
-        <v>622</v>
-      </c>
-      <c r="M405" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>342</v>
       </c>
@@ -10291,11 +10185,11 @@
       <c r="E406" t="s">
         <v>344</v>
       </c>
-      <c r="M406" t="s">
+      <c r="L406" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>342</v>
       </c>
@@ -10311,11 +10205,11 @@
       <c r="E407" t="s">
         <v>345</v>
       </c>
-      <c r="M407" t="s">
+      <c r="L407" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>342</v>
       </c>
@@ -10331,11 +10225,11 @@
       <c r="E408" t="s">
         <v>346</v>
       </c>
-      <c r="M408" t="s">
+      <c r="L408" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>342</v>
       </c>
@@ -10351,11 +10245,11 @@
       <c r="E409" t="s">
         <v>347</v>
       </c>
-      <c r="M409" t="s">
+      <c r="L409" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>342</v>
       </c>
@@ -10371,11 +10265,11 @@
       <c r="E410" t="s">
         <v>348</v>
       </c>
-      <c r="M410" t="s">
+      <c r="L410" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>342</v>
       </c>
@@ -10391,11 +10285,11 @@
       <c r="E411" t="s">
         <v>349</v>
       </c>
-      <c r="M411" t="s">
+      <c r="L411" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>342</v>
       </c>
@@ -10411,11 +10305,11 @@
       <c r="E412" t="s">
         <v>351</v>
       </c>
-      <c r="M412" t="s">
+      <c r="L412" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>342</v>
       </c>
@@ -10431,11 +10325,11 @@
       <c r="E413" t="s">
         <v>353</v>
       </c>
-      <c r="M413" t="s">
+      <c r="L413" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>342</v>
       </c>
@@ -10451,11 +10345,11 @@
       <c r="E414" t="s">
         <v>354</v>
       </c>
-      <c r="M414" t="s">
+      <c r="L414" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>342</v>
       </c>
@@ -10471,11 +10365,11 @@
       <c r="E415" t="s">
         <v>355</v>
       </c>
-      <c r="M415" t="s">
+      <c r="L415" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>342</v>
       </c>
@@ -10491,11 +10385,11 @@
       <c r="E416" t="s">
         <v>357</v>
       </c>
-      <c r="M416" t="s">
+      <c r="L416" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>358</v>
       </c>
@@ -10512,13 +10406,10 @@
         <v>359</v>
       </c>
       <c r="J417" t="s">
-        <v>622</v>
-      </c>
-      <c r="L417" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="418" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>358</v>
       </c>
@@ -10535,7 +10426,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>358</v>
       </c>
@@ -10552,7 +10443,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>358</v>
       </c>
@@ -10569,7 +10460,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>358</v>
       </c>
@@ -10586,7 +10477,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>358</v>
       </c>
@@ -10603,7 +10494,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>365</v>
       </c>
@@ -10620,16 +10511,13 @@
         <v>366</v>
       </c>
       <c r="J423" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="L423" t="s">
-        <v>622</v>
-      </c>
-      <c r="M423" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>365</v>
       </c>
@@ -10645,11 +10533,11 @@
       <c r="E424" t="s">
         <v>367</v>
       </c>
-      <c r="M424" t="s">
+      <c r="L424" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>365</v>
       </c>
@@ -10665,11 +10553,11 @@
       <c r="E425" t="s">
         <v>368</v>
       </c>
-      <c r="M425" t="s">
+      <c r="L425" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>365</v>
       </c>
@@ -10685,11 +10573,11 @@
       <c r="E426" t="s">
         <v>369</v>
       </c>
-      <c r="M426" t="s">
+      <c r="L426" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>365</v>
       </c>
@@ -10705,11 +10593,11 @@
       <c r="E427" t="s">
         <v>370</v>
       </c>
-      <c r="M427" t="s">
+      <c r="L427" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>371</v>
       </c>
@@ -10726,16 +10614,13 @@
         <v>372</v>
       </c>
       <c r="J428" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K428" t="s">
-        <v>622</v>
-      </c>
-      <c r="L428" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="429" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>371</v>
       </c>
@@ -10752,7 +10637,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>371</v>
       </c>
@@ -10769,7 +10654,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>371</v>
       </c>
@@ -10786,7 +10671,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>371</v>
       </c>
@@ -10803,7 +10688,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>378</v>
       </c>
@@ -10820,13 +10705,10 @@
         <v>379</v>
       </c>
       <c r="J433" t="s">
-        <v>622</v>
-      </c>
-      <c r="L433" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="434" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>378</v>
       </c>
@@ -10843,7 +10725,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>378</v>
       </c>
@@ -10860,7 +10742,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>378</v>
       </c>
@@ -10877,7 +10759,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>378</v>
       </c>
@@ -10894,7 +10776,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>378</v>
       </c>
@@ -10911,7 +10793,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>378</v>
       </c>
@@ -10928,7 +10810,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>385</v>
       </c>
@@ -10945,16 +10827,13 @@
         <v>386</v>
       </c>
       <c r="J440" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="L440" t="s">
-        <v>622</v>
-      </c>
-      <c r="M440" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>385</v>
       </c>
@@ -10970,11 +10849,11 @@
       <c r="E441" t="s">
         <v>387</v>
       </c>
-      <c r="M441" t="s">
+      <c r="L441" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>385</v>
       </c>
@@ -10990,11 +10869,11 @@
       <c r="E442" t="s">
         <v>388</v>
       </c>
-      <c r="M442" t="s">
+      <c r="L442" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>385</v>
       </c>
@@ -11010,11 +10889,11 @@
       <c r="E443" t="s">
         <v>389</v>
       </c>
-      <c r="M443" t="s">
+      <c r="L443" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>385</v>
       </c>
@@ -11030,11 +10909,11 @@
       <c r="E444" t="s">
         <v>390</v>
       </c>
-      <c r="M444" t="s">
+      <c r="L444" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>391</v>
       </c>
@@ -11051,13 +10930,10 @@
         <v>392</v>
       </c>
       <c r="J445" t="s">
-        <v>622</v>
-      </c>
-      <c r="L445" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="446" spans="1:13" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="446" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>391</v>
       </c>
@@ -11074,7 +10950,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>391</v>
       </c>
@@ -11091,7 +10967,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>391</v>
       </c>
@@ -11108,7 +10984,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="449" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>391</v>
       </c>
@@ -11125,7 +11001,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="450" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>391</v>
       </c>
@@ -11142,7 +11018,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="451" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>391</v>
       </c>
@@ -11159,7 +11035,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="452" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>393</v>
       </c>
@@ -11176,16 +11052,13 @@
         <v>394</v>
       </c>
       <c r="J452" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="L452" t="s">
-        <v>622</v>
-      </c>
-      <c r="M452" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="453" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>393</v>
       </c>
@@ -11201,11 +11074,11 @@
       <c r="E453" t="s">
         <v>395</v>
       </c>
-      <c r="M453" t="s">
+      <c r="L453" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="454" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>393</v>
       </c>
@@ -11219,13 +11092,13 @@
         <v>1</v>
       </c>
       <c r="E454" t="s">
-        <v>599</v>
-      </c>
-      <c r="M454" t="s">
+        <v>598</v>
+      </c>
+      <c r="L454" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="455" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>393</v>
       </c>
@@ -11239,13 +11112,13 @@
         <v>2</v>
       </c>
       <c r="E455" t="s">
-        <v>600</v>
-      </c>
-      <c r="M455" t="s">
+        <v>599</v>
+      </c>
+      <c r="L455" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="456" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>393</v>
       </c>
@@ -11261,11 +11134,11 @@
       <c r="E456" t="s">
         <v>396</v>
       </c>
-      <c r="M456" t="s">
+      <c r="L456" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="457" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>397</v>
       </c>
@@ -11282,19 +11155,16 @@
         <v>398</v>
       </c>
       <c r="J457" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K457" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="L457" t="s">
-        <v>622</v>
-      </c>
-      <c r="M457" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="458" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>397</v>
       </c>
@@ -11310,11 +11180,11 @@
       <c r="E458" t="s">
         <v>413</v>
       </c>
-      <c r="M458" t="s">
+      <c r="L458" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="459" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>397</v>
       </c>
@@ -11330,11 +11200,11 @@
       <c r="E459" t="s">
         <v>414</v>
       </c>
-      <c r="M459" t="s">
+      <c r="L459" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="460" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>397</v>
       </c>
@@ -11350,11 +11220,11 @@
       <c r="E460" t="s">
         <v>415</v>
       </c>
-      <c r="M460" t="s">
+      <c r="L460" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="461" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>397</v>
       </c>
@@ -11370,11 +11240,11 @@
       <c r="E461" t="s">
         <v>416</v>
       </c>
-      <c r="M461" t="s">
+      <c r="L461" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="462" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>397</v>
       </c>
@@ -11390,11 +11260,11 @@
       <c r="E462" t="s">
         <v>417</v>
       </c>
-      <c r="M462" t="s">
+      <c r="L462" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="463" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>399</v>
       </c>
@@ -11411,19 +11281,16 @@
         <v>400</v>
       </c>
       <c r="J463" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K463" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="L463" t="s">
-        <v>622</v>
-      </c>
-      <c r="M463" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="464" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>399</v>
       </c>
@@ -11439,11 +11306,11 @@
       <c r="E464" t="s">
         <v>413</v>
       </c>
-      <c r="M464" t="s">
+      <c r="L464" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>399</v>
       </c>
@@ -11459,11 +11326,11 @@
       <c r="E465" t="s">
         <v>414</v>
       </c>
-      <c r="M465" t="s">
+      <c r="L465" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="466" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>399</v>
       </c>
@@ -11479,11 +11346,11 @@
       <c r="E466" t="s">
         <v>415</v>
       </c>
-      <c r="M466" t="s">
+      <c r="L466" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>399</v>
       </c>
@@ -11499,11 +11366,11 @@
       <c r="E467" t="s">
         <v>416</v>
       </c>
-      <c r="M467" t="s">
+      <c r="L467" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="468" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>399</v>
       </c>
@@ -11519,11 +11386,11 @@
       <c r="E468" t="s">
         <v>417</v>
       </c>
-      <c r="M468" t="s">
+      <c r="L468" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="469" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>401</v>
       </c>
@@ -11540,19 +11407,16 @@
         <v>402</v>
       </c>
       <c r="J469" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K469" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="L469" t="s">
-        <v>622</v>
-      </c>
-      <c r="M469" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="470" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>401</v>
       </c>
@@ -11568,11 +11432,11 @@
       <c r="E470" t="s">
         <v>413</v>
       </c>
-      <c r="M470" t="s">
+      <c r="L470" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="471" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>401</v>
       </c>
@@ -11588,11 +11452,11 @@
       <c r="E471" t="s">
         <v>414</v>
       </c>
-      <c r="M471" t="s">
+      <c r="L471" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="472" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>401</v>
       </c>
@@ -11608,11 +11472,11 @@
       <c r="E472" t="s">
         <v>415</v>
       </c>
-      <c r="M472" t="s">
+      <c r="L472" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>401</v>
       </c>
@@ -11628,11 +11492,11 @@
       <c r="E473" t="s">
         <v>416</v>
       </c>
-      <c r="M473" t="s">
+      <c r="L473" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="474" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>401</v>
       </c>
@@ -11648,11 +11512,11 @@
       <c r="E474" t="s">
         <v>417</v>
       </c>
-      <c r="M474" t="s">
+      <c r="L474" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="475" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>403</v>
       </c>
@@ -11669,19 +11533,16 @@
         <v>404</v>
       </c>
       <c r="J475" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K475" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="L475" t="s">
-        <v>622</v>
-      </c>
-      <c r="M475" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="476" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>403</v>
       </c>
@@ -11697,11 +11558,11 @@
       <c r="E476" t="s">
         <v>413</v>
       </c>
-      <c r="M476" t="s">
+      <c r="L476" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="477" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>403</v>
       </c>
@@ -11717,11 +11578,11 @@
       <c r="E477" t="s">
         <v>414</v>
       </c>
-      <c r="M477" t="s">
+      <c r="L477" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="478" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>403</v>
       </c>
@@ -11737,11 +11598,11 @@
       <c r="E478" t="s">
         <v>415</v>
       </c>
-      <c r="M478" t="s">
+      <c r="L478" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="479" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>403</v>
       </c>
@@ -11757,11 +11618,11 @@
       <c r="E479" t="s">
         <v>416</v>
       </c>
-      <c r="M479" t="s">
+      <c r="L479" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="480" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>403</v>
       </c>
@@ -11777,11 +11638,11 @@
       <c r="E480" t="s">
         <v>417</v>
       </c>
-      <c r="M480" t="s">
+      <c r="L480" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="481" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>405</v>
       </c>
@@ -11798,19 +11659,16 @@
         <v>406</v>
       </c>
       <c r="J481" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K481" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="L481" t="s">
-        <v>622</v>
-      </c>
-      <c r="M481" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="482" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>405</v>
       </c>
@@ -11826,11 +11684,11 @@
       <c r="E482" t="s">
         <v>413</v>
       </c>
-      <c r="M482" t="s">
+      <c r="L482" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="483" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>405</v>
       </c>
@@ -11846,11 +11704,11 @@
       <c r="E483" t="s">
         <v>414</v>
       </c>
-      <c r="M483" t="s">
+      <c r="L483" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="484" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>405</v>
       </c>
@@ -11866,11 +11724,11 @@
       <c r="E484" t="s">
         <v>415</v>
       </c>
-      <c r="M484" t="s">
+      <c r="L484" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="485" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>405</v>
       </c>
@@ -11886,11 +11744,11 @@
       <c r="E485" t="s">
         <v>416</v>
       </c>
-      <c r="M485" t="s">
+      <c r="L485" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="486" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>405</v>
       </c>
@@ -11906,11 +11764,11 @@
       <c r="E486" t="s">
         <v>417</v>
       </c>
-      <c r="M486" t="s">
+      <c r="L486" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="487" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>407</v>
       </c>
@@ -11927,19 +11785,16 @@
         <v>408</v>
       </c>
       <c r="J487" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K487" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="L487" t="s">
-        <v>622</v>
-      </c>
-      <c r="M487" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="488" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>407</v>
       </c>
@@ -11955,11 +11810,11 @@
       <c r="E488" t="s">
         <v>413</v>
       </c>
-      <c r="M488" t="s">
+      <c r="L488" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="489" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>407</v>
       </c>
@@ -11975,11 +11830,11 @@
       <c r="E489" t="s">
         <v>414</v>
       </c>
-      <c r="M489" t="s">
+      <c r="L489" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="490" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>407</v>
       </c>
@@ -11995,11 +11850,11 @@
       <c r="E490" t="s">
         <v>415</v>
       </c>
-      <c r="M490" t="s">
+      <c r="L490" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="491" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>407</v>
       </c>
@@ -12015,11 +11870,11 @@
       <c r="E491" t="s">
         <v>416</v>
       </c>
-      <c r="M491" t="s">
+      <c r="L491" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="492" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>407</v>
       </c>
@@ -12035,11 +11890,11 @@
       <c r="E492" t="s">
         <v>417</v>
       </c>
-      <c r="M492" t="s">
+      <c r="L492" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="493" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>409</v>
       </c>
@@ -12056,19 +11911,16 @@
         <v>410</v>
       </c>
       <c r="J493" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K493" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="L493" t="s">
-        <v>622</v>
-      </c>
-      <c r="M493" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="494" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>409</v>
       </c>
@@ -12084,11 +11936,11 @@
       <c r="E494" t="s">
         <v>413</v>
       </c>
-      <c r="M494" t="s">
+      <c r="L494" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="495" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>409</v>
       </c>
@@ -12104,11 +11956,11 @@
       <c r="E495" t="s">
         <v>414</v>
       </c>
-      <c r="M495" t="s">
+      <c r="L495" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="496" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>409</v>
       </c>
@@ -12124,11 +11976,11 @@
       <c r="E496" t="s">
         <v>415</v>
       </c>
-      <c r="M496" t="s">
+      <c r="L496" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="497" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>409</v>
       </c>
@@ -12144,11 +11996,11 @@
       <c r="E497" t="s">
         <v>416</v>
       </c>
-      <c r="M497" t="s">
+      <c r="L497" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="498" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>409</v>
       </c>
@@ -12164,11 +12016,11 @@
       <c r="E498" t="s">
         <v>417</v>
       </c>
-      <c r="M498" t="s">
+      <c r="L498" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="499" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>411</v>
       </c>
@@ -12185,19 +12037,16 @@
         <v>412</v>
       </c>
       <c r="J499" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K499" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="L499" t="s">
-        <v>622</v>
-      </c>
-      <c r="M499" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="500" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>411</v>
       </c>
@@ -12213,11 +12062,11 @@
       <c r="E500" t="s">
         <v>413</v>
       </c>
-      <c r="M500" t="s">
+      <c r="L500" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="501" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>411</v>
       </c>
@@ -12233,11 +12082,11 @@
       <c r="E501" t="s">
         <v>414</v>
       </c>
-      <c r="M501" t="s">
+      <c r="L501" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="502" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>411</v>
       </c>
@@ -12253,11 +12102,11 @@
       <c r="E502" t="s">
         <v>415</v>
       </c>
-      <c r="M502" t="s">
+      <c r="L502" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="503" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>411</v>
       </c>
@@ -12273,11 +12122,11 @@
       <c r="E503" t="s">
         <v>416</v>
       </c>
-      <c r="M503" t="s">
+      <c r="L503" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="504" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>411</v>
       </c>
@@ -12293,11 +12142,11 @@
       <c r="E504" t="s">
         <v>417</v>
       </c>
-      <c r="M504" t="s">
+      <c r="L504" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="505" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>418</v>
       </c>
@@ -12314,16 +12163,16 @@
         <v>419</v>
       </c>
       <c r="J505" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K505" t="s">
-        <v>622</v>
-      </c>
-      <c r="M505" t="s">
+        <v>621</v>
+      </c>
+      <c r="L505" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="506" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>420</v>
       </c>
@@ -12340,16 +12189,16 @@
         <v>421</v>
       </c>
       <c r="J506" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K506" t="s">
-        <v>622</v>
-      </c>
-      <c r="M506" t="s">
+        <v>621</v>
+      </c>
+      <c r="L506" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="507" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>422</v>
       </c>
@@ -12366,16 +12215,16 @@
         <v>423</v>
       </c>
       <c r="J507" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K507" t="s">
-        <v>622</v>
-      </c>
-      <c r="M507" t="s">
+        <v>621</v>
+      </c>
+      <c r="L507" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="508" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>424</v>
       </c>
@@ -12392,13 +12241,13 @@
         <v>425</v>
       </c>
       <c r="J508" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K508" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="509" spans="1:13" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="509" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>426</v>
       </c>
@@ -12415,13 +12264,13 @@
         <v>427</v>
       </c>
       <c r="J509" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K509" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="510" spans="1:13" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="510" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>428</v>
       </c>
@@ -12438,13 +12287,13 @@
         <v>429</v>
       </c>
       <c r="J510" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K510" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="511" spans="1:13" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="511" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>430</v>
       </c>
@@ -12461,13 +12310,13 @@
         <v>431</v>
       </c>
       <c r="J511" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K511" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="512" spans="1:13" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="512" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>432</v>
       </c>
@@ -12484,16 +12333,16 @@
         <v>433</v>
       </c>
       <c r="J512" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K512" t="s">
-        <v>622</v>
-      </c>
-      <c r="M512" t="s">
+        <v>621</v>
+      </c>
+      <c r="L512" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="513" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>434</v>
       </c>
@@ -12510,13 +12359,13 @@
         <v>435</v>
       </c>
       <c r="J513" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K513" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="514" spans="1:12" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>436</v>
       </c>
@@ -12533,13 +12382,13 @@
         <v>437</v>
       </c>
       <c r="J514" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K514" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="515" spans="1:12" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>438</v>
       </c>
@@ -12556,13 +12405,13 @@
         <v>439</v>
       </c>
       <c r="J515" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K515" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="516" spans="1:12" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>440</v>
       </c>
@@ -12579,13 +12428,13 @@
         <v>441</v>
       </c>
       <c r="J516" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K516" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="517" spans="1:12" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>442</v>
       </c>
@@ -12602,13 +12451,13 @@
         <v>443</v>
       </c>
       <c r="J517" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K517" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="518" spans="1:12" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>444</v>
       </c>
@@ -12625,13 +12474,13 @@
         <v>445</v>
       </c>
       <c r="J518" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K518" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="519" spans="1:12" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>446</v>
       </c>
@@ -12648,16 +12497,13 @@
         <v>447</v>
       </c>
       <c r="J519" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K519" t="s">
-        <v>622</v>
-      </c>
-      <c r="L519" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="520" spans="1:12" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>446</v>
       </c>
@@ -12674,7 +12520,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="521" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>446</v>
       </c>
@@ -12691,7 +12537,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="522" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>446</v>
       </c>
@@ -12708,7 +12554,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="523" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>446</v>
       </c>
@@ -12725,7 +12571,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="524" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>446</v>
       </c>
@@ -12742,7 +12588,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="525" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>446</v>
       </c>
@@ -12759,7 +12605,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="526" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>446</v>
       </c>
@@ -12773,10 +12619,10 @@
         <v>459</v>
       </c>
       <c r="E526" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="527" spans="1:12" x14ac:dyDescent="0.3">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>446</v>
       </c>
@@ -12790,10 +12636,10 @@
         <v>460</v>
       </c>
       <c r="E527" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="528" spans="1:12" x14ac:dyDescent="0.3">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>446</v>
       </c>
@@ -12807,10 +12653,10 @@
         <v>461</v>
       </c>
       <c r="E528" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="529" spans="1:12" x14ac:dyDescent="0.3">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>446</v>
       </c>
@@ -12824,10 +12670,10 @@
         <v>462</v>
       </c>
       <c r="E529" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="530" spans="1:12" x14ac:dyDescent="0.3">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>446</v>
       </c>
@@ -12844,7 +12690,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="531" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>446</v>
       </c>
@@ -12858,10 +12704,10 @@
         <v>465</v>
       </c>
       <c r="E531" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="532" spans="1:12" x14ac:dyDescent="0.3">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>448</v>
       </c>
@@ -12878,16 +12724,13 @@
         <v>449</v>
       </c>
       <c r="J532" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K532" t="s">
-        <v>622</v>
-      </c>
-      <c r="L532" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="533" spans="1:12" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>448</v>
       </c>
@@ -12904,7 +12747,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="534" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>448</v>
       </c>
@@ -12921,7 +12764,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="535" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>448</v>
       </c>
@@ -12938,7 +12781,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="536" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>448</v>
       </c>
@@ -12955,7 +12798,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="537" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>448</v>
       </c>
@@ -12972,7 +12815,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="538" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>448</v>
       </c>
@@ -12989,7 +12832,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="539" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>448</v>
       </c>
@@ -13003,10 +12846,10 @@
         <v>459</v>
       </c>
       <c r="E539" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="540" spans="1:12" x14ac:dyDescent="0.3">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>448</v>
       </c>
@@ -13020,10 +12863,10 @@
         <v>460</v>
       </c>
       <c r="E540" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="541" spans="1:12" x14ac:dyDescent="0.3">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>448</v>
       </c>
@@ -13037,10 +12880,10 @@
         <v>461</v>
       </c>
       <c r="E541" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="542" spans="1:12" x14ac:dyDescent="0.3">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>448</v>
       </c>
@@ -13054,10 +12897,10 @@
         <v>462</v>
       </c>
       <c r="E542" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="543" spans="1:12" x14ac:dyDescent="0.3">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>448</v>
       </c>
@@ -13074,7 +12917,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="544" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>448</v>
       </c>
@@ -13088,10 +12931,10 @@
         <v>465</v>
       </c>
       <c r="E544" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="545" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="545" spans="1:11" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>466</v>
       </c>
@@ -13108,16 +12951,13 @@
         <v>467</v>
       </c>
       <c r="J545" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K545" t="s">
-        <v>622</v>
-      </c>
-      <c r="L545" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="546" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="546" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>466</v>
       </c>
@@ -13134,7 +12974,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="547" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>466</v>
       </c>
@@ -13148,10 +12988,10 @@
         <v>470</v>
       </c>
       <c r="E547" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="548" spans="1:12" x14ac:dyDescent="0.3">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>466</v>
       </c>
@@ -13165,10 +13005,10 @@
         <v>471</v>
       </c>
       <c r="E548" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="549" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="549" spans="1:11" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>468</v>
       </c>
@@ -13185,16 +13025,13 @@
         <v>469</v>
       </c>
       <c r="J549" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K549" t="s">
-        <v>622</v>
-      </c>
-      <c r="L549" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="550" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="550" spans="1:11" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>468</v>
       </c>
@@ -13211,7 +13048,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="551" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>468</v>
       </c>
@@ -13225,10 +13062,10 @@
         <v>470</v>
       </c>
       <c r="E551" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="552" spans="1:12" x14ac:dyDescent="0.3">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>468</v>
       </c>
@@ -13242,10 +13079,10 @@
         <v>471</v>
       </c>
       <c r="E552" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="553" spans="1:12" x14ac:dyDescent="0.3">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>472</v>
       </c>
@@ -13262,16 +13099,13 @@
         <v>473</v>
       </c>
       <c r="J553" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K553" t="s">
-        <v>622</v>
-      </c>
-      <c r="L553" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="554" spans="1:12" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>472</v>
       </c>
@@ -13285,10 +13119,10 @@
         <v>476</v>
       </c>
       <c r="E554" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="555" spans="1:12" x14ac:dyDescent="0.3">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>472</v>
       </c>
@@ -13302,10 +13136,10 @@
         <v>477</v>
       </c>
       <c r="E555" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="556" spans="1:12" x14ac:dyDescent="0.3">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>472</v>
       </c>
@@ -13319,10 +13153,10 @@
         <v>478</v>
       </c>
       <c r="E556" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="557" spans="1:12" x14ac:dyDescent="0.3">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>472</v>
       </c>
@@ -13336,10 +13170,10 @@
         <v>479</v>
       </c>
       <c r="E557" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="558" spans="1:12" x14ac:dyDescent="0.3">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>472</v>
       </c>
@@ -13353,10 +13187,10 @@
         <v>480</v>
       </c>
       <c r="E558" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="559" spans="1:12" x14ac:dyDescent="0.3">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>474</v>
       </c>
@@ -13373,16 +13207,13 @@
         <v>475</v>
       </c>
       <c r="J559" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K559" t="s">
-        <v>622</v>
-      </c>
-      <c r="L559" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="560" spans="1:12" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>474</v>
       </c>
@@ -13396,7 +13227,7 @@
         <v>476</v>
       </c>
       <c r="E560" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.3">
@@ -13413,7 +13244,7 @@
         <v>477</v>
       </c>
       <c r="E561" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.3">
@@ -13430,7 +13261,7 @@
         <v>478</v>
       </c>
       <c r="E562" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.3">
@@ -13447,7 +13278,7 @@
         <v>479</v>
       </c>
       <c r="E563" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.3">
@@ -13464,7 +13295,7 @@
         <v>480</v>
       </c>
       <c r="E564" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.3">
@@ -13484,10 +13315,10 @@
         <v>482</v>
       </c>
       <c r="J565" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K565" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.3">
@@ -13507,10 +13338,10 @@
         <v>484</v>
       </c>
       <c r="J566" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K566" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.3">
@@ -13530,10 +13361,10 @@
         <v>486</v>
       </c>
       <c r="J567" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K567" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.3">
@@ -13553,10 +13384,10 @@
         <v>488</v>
       </c>
       <c r="J568" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K568" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.3">
@@ -13579,7 +13410,7 @@
         <v>577</v>
       </c>
       <c r="J569" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.3">
@@ -13602,7 +13433,7 @@
         <v>577</v>
       </c>
       <c r="J570" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.3">
@@ -13622,10 +13453,10 @@
         <v>494</v>
       </c>
       <c r="J571" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K571" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.3">
@@ -13645,10 +13476,10 @@
         <v>496</v>
       </c>
       <c r="J572" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K572" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.3">
@@ -13668,10 +13499,10 @@
         <v>498</v>
       </c>
       <c r="J573" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K573" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.3">
@@ -13691,10 +13522,10 @@
         <v>500</v>
       </c>
       <c r="J574" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K574" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="575" spans="1:11" x14ac:dyDescent="0.3">
@@ -13714,10 +13545,10 @@
         <v>502</v>
       </c>
       <c r="J575" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K575" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.3">
@@ -13737,13 +13568,13 @@
         <v>504</v>
       </c>
       <c r="J576" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K576" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="577" spans="1:13" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="577" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>505</v>
       </c>
@@ -13757,16 +13588,16 @@
         <v>582</v>
       </c>
       <c r="E577" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F577" t="s">
         <v>580</v>
       </c>
       <c r="J577" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="578" spans="1:13" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="578" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>506</v>
       </c>
@@ -13783,13 +13614,13 @@
         <v>507</v>
       </c>
       <c r="J578" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K578" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="579" spans="1:13" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="579" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>508</v>
       </c>
@@ -13803,16 +13634,16 @@
         <v>582</v>
       </c>
       <c r="E579" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J579" t="s">
-        <v>622</v>
-      </c>
-      <c r="M579" t="s">
+        <v>621</v>
+      </c>
+      <c r="L579" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="580" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>509</v>
       </c>
@@ -13832,13 +13663,13 @@
         <v>581</v>
       </c>
       <c r="J580" t="s">
-        <v>622</v>
-      </c>
-      <c r="M580" t="s">
+        <v>621</v>
+      </c>
+      <c r="L580" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="581" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>512</v>
       </c>
@@ -13855,19 +13686,16 @@
         <v>513</v>
       </c>
       <c r="J581" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K581" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="L581" t="s">
-        <v>622</v>
-      </c>
-      <c r="M581" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="582" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>512</v>
       </c>
@@ -13884,7 +13712,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="583" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>512</v>
       </c>
@@ -13901,7 +13729,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="584" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>512</v>
       </c>
@@ -13918,7 +13746,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="585" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>512</v>
       </c>
@@ -13935,7 +13763,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="586" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>512</v>
       </c>
@@ -13952,7 +13780,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="587" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>0</v>
       </c>
@@ -13969,14 +13797,14 @@
         <v>524</v>
       </c>
       <c r="J587" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K587" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N587">
+  <autoFilter ref="A1:M587">
     <sortState ref="A2:M587">
       <sortCondition ref="J1:J587"/>
     </sortState>
@@ -13994,7 +13822,7 @@
           <x14:formula1>
             <xm:f>validation_values!$B$1:$B$2</xm:f>
           </x14:formula1>
-          <xm:sqref>J2:L1048576</xm:sqref>
+          <xm:sqref>J2:K1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -14023,7 +13851,7 @@
         <v>530</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -14031,7 +13859,7 @@
         <v>531</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -14247,15 +14075,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DE904D578DFE6844BEAE84BDC2B4097E" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="50ebab51745edbac74153c776eff7922">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="847bd2b6-c417-48b3-84b7-e392c504f3bb" xmlns:ns4="f32a61f4-5698-46d5-9f56-343e6d7dc7d7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="48e32a04494ad4991fdbd7a90d4a41aa" ns3:_="" ns4:_="">
     <xsd:import namespace="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
@@ -14464,32 +14283,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8450404-B5A9-4CAE-AD2F-E650514D4870}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f32a61f4-5698-46d5-9f56-343e6d7dc7d7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="f32a61f4-5698-46d5-9f56-343e6d7dc7d7"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F5B82C4-8D32-4858-AE49-B9F718EB1758}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82216217-E566-4EBA-B2A2-632151E5C36C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14506,4 +14326,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F5B82C4-8D32-4858-AE49-B9F718EB1758}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/inputs/Example_Dictionary.xlsx
+++ b/inputs/Example_Dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hdvincelette/Documents/GitHub/write-mdJSON-dictionary/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607ECFA3-DF2C-FC43-AF62-2309E23383A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FCBC12-B167-CB48-A4A8-28FECE120259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2180" yWindow="500" windowWidth="26320" windowHeight="14740" tabRatio="747" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2711,7 +2711,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A255" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C273" sqref="C273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11790,7 +11790,7 @@
           <x14:formula1>
             <xm:f>validation_values!$B$1:$B$2</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K1048576 F1:F1048576</xm:sqref>
+          <xm:sqref>K2:K1048576 F2:F1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -12031,12 +12031,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12249,15 +12246,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F5B82C4-8D32-4858-AE49-B9F718EB1758}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8450404-B5A9-4CAE-AD2F-E650514D4870}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f32a61f4-5698-46d5-9f56-343e6d7dc7d7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12282,18 +12291,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8450404-B5A9-4CAE-AD2F-E650514D4870}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F5B82C4-8D32-4858-AE49-B9F718EB1758}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f32a61f4-5698-46d5-9f56-343e6d7dc7d7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>